--- a/capiq_data/in_process_data/IQ27198.xlsx
+++ b/capiq_data/in_process_data/IQ27198.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237236DB-F2E8-4851-9DC4-CF1DC5A0EADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3024AD-2E30-4BC9-B8A1-927F867906F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"70270e3b-bbd8-4cd5-ad03-04853ca09a92"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"cd07f75e-6171-4386-86f8-26f13f209781"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>40.872999999999998</v>
+        <v>-59.036000000000001</v>
       </c>
       <c r="D2">
-        <v>496.31400000000002</v>
+        <v>201.97300000000001</v>
       </c>
       <c r="E2">
-        <v>86.644999999999996</v>
+        <v>168.184</v>
       </c>
       <c r="F2">
-        <v>343.38</v>
+        <v>97.507000000000005</v>
       </c>
       <c r="G2">
-        <v>545.14499999999998</v>
+        <v>696.178</v>
       </c>
       <c r="H2">
-        <v>10469.529</v>
+        <v>6401.8850000000002</v>
       </c>
       <c r="I2">
-        <v>39.649000000000001</v>
+        <v>100.76600000000001</v>
       </c>
       <c r="J2">
-        <v>6750.2070000000003</v>
+        <v>2602.6869999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>440.88499999999999</v>
+        <v>286.92</v>
       </c>
       <c r="O2">
-        <v>7707.9539999999997</v>
+        <v>2982.9609999999998</v>
       </c>
       <c r="P2">
-        <v>6778.8940000000002</v>
+        <v>2602.6869999999999</v>
       </c>
       <c r="Q2">
-        <v>-191.44800000000001</v>
+        <v>-363.10500000000002</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="T2">
-        <v>2761.5749999999998</v>
+        <v>3418.924</v>
       </c>
       <c r="U2">
-        <v>112.53100000000001</v>
+        <v>453.83300000000003</v>
       </c>
       <c r="V2">
-        <v>195.77500000000001</v>
+        <v>47.905000000000001</v>
       </c>
       <c r="W2">
-        <v>-4.97</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-295.39100000000002</v>
+        <v>16.652000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-175.51</v>
       </c>
       <c r="AA2">
-        <v>40.872999999999998</v>
+        <v>-59.036000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>40.017000000000003</v>
+        <v>-68.055000000000007</v>
       </c>
       <c r="D3">
-        <v>499.03899999999999</v>
+        <v>212.953</v>
       </c>
       <c r="E3">
-        <v>77.771000000000001</v>
+        <v>197.11600000000001</v>
       </c>
       <c r="F3">
-        <v>353.4</v>
+        <v>99.757999999999996</v>
       </c>
       <c r="G3">
-        <v>516.07100000000003</v>
+        <v>1053.75</v>
       </c>
       <c r="H3">
-        <v>10397.194</v>
+        <v>6868.5460000000003</v>
       </c>
       <c r="I3">
-        <v>30.231000000000002</v>
+        <v>83.191000000000003</v>
       </c>
       <c r="J3">
-        <v>6706.9359999999997</v>
+        <v>2701.1750000000002</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-58.521000000000001</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>392.72899999999998</v>
+        <v>398.02199999999999</v>
       </c>
       <c r="O3">
-        <v>7617.3850000000002</v>
+        <v>3198.654</v>
       </c>
       <c r="P3">
-        <v>6736.4979999999996</v>
+        <v>2701.1750000000002</v>
       </c>
       <c r="Q3">
-        <v>-30.210999999999999</v>
+        <v>263.108</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2779.8090000000002</v>
+        <v>3669.8919999999998</v>
       </c>
       <c r="U3">
-        <v>82.32</v>
+        <v>716.94100000000003</v>
       </c>
       <c r="V3">
-        <v>127.514</v>
+        <v>44.889000000000003</v>
       </c>
       <c r="W3">
-        <v>-4.9690000000000003</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-105.59</v>
+        <v>443.70600000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>26.931999999999999</v>
       </c>
       <c r="AA3">
-        <v>40.017000000000003</v>
+        <v>-68.055000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>30.870999999999999</v>
+        <v>-84.733000000000004</v>
       </c>
       <c r="D4">
-        <v>500.33600000000001</v>
+        <v>229.416</v>
       </c>
       <c r="E4">
-        <v>82.78</v>
+        <v>198.74600000000001</v>
       </c>
       <c r="F4">
-        <v>353.28699999999998</v>
+        <v>106.31</v>
       </c>
       <c r="G4">
-        <v>511.94200000000001</v>
+        <v>1049.741</v>
       </c>
       <c r="H4">
-        <v>10385.32</v>
+        <v>7471.826</v>
       </c>
       <c r="I4">
-        <v>32.691000000000003</v>
+        <v>93.927999999999997</v>
       </c>
       <c r="J4">
-        <v>6785.55</v>
+        <v>3354.8440000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>381.57299999999998</v>
+        <v>408.59</v>
       </c>
       <c r="O4">
-        <v>7699.4830000000002</v>
+        <v>3884.0030000000002</v>
       </c>
       <c r="P4">
-        <v>6819.2610000000004</v>
+        <v>3354.8440000000001</v>
       </c>
       <c r="Q4">
-        <v>25.795999999999999</v>
+        <v>-57.906999999999996</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2685.837</v>
+        <v>3587.8229999999999</v>
       </c>
       <c r="U4">
-        <v>108.116</v>
+        <v>659.03399999999999</v>
       </c>
       <c r="V4">
-        <v>156.29499999999999</v>
+        <v>7.9880000000000004</v>
       </c>
       <c r="W4">
-        <v>-4.97</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-54.941000000000003</v>
+        <v>645.06100000000004</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-404.68099999999998</v>
       </c>
       <c r="AA4">
-        <v>30.870999999999999</v>
+        <v>-84.733000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>51.277999999999999</v>
+        <v>-110.33</v>
       </c>
       <c r="D5">
-        <v>513.88300000000004</v>
+        <v>218.39599999999999</v>
       </c>
       <c r="E5">
-        <v>91.912000000000006</v>
+        <v>204.92699999999999</v>
       </c>
       <c r="F5">
-        <v>367.041</v>
+        <v>109.29900000000001</v>
       </c>
       <c r="G5">
-        <v>522.28</v>
+        <v>983.74800000000005</v>
       </c>
       <c r="H5">
-        <v>10443.215</v>
+        <v>7523.1890000000003</v>
       </c>
       <c r="I5">
-        <v>29.655000000000001</v>
+        <v>101.051</v>
       </c>
       <c r="J5">
-        <v>6853.5619999999999</v>
+        <v>3374.703</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>376.834</v>
+        <v>492.76299999999998</v>
       </c>
       <c r="O5">
-        <v>7824.7529999999997</v>
+        <v>4013.6120000000001</v>
       </c>
       <c r="P5">
-        <v>6938.1220000000003</v>
+        <v>3389.3939999999998</v>
       </c>
       <c r="Q5">
-        <v>-32.591999999999999</v>
+        <v>-122.339</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2618.462</v>
+        <v>3509.5770000000002</v>
       </c>
       <c r="U5">
-        <v>75.524000000000001</v>
+        <v>536.69500000000005</v>
       </c>
       <c r="V5">
-        <v>171.465</v>
+        <v>25.831</v>
       </c>
       <c r="W5">
-        <v>-4.774</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-34.984999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="Y5">
-        <v>49.512</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>51.277999999999999</v>
+        <v>-110.33</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>48.911000000000001</v>
+        <v>-103.04900000000001</v>
       </c>
       <c r="D6">
-        <v>519.471</v>
+        <v>238.18600000000001</v>
       </c>
       <c r="E6">
-        <v>77.257999999999996</v>
+        <v>188.49600000000001</v>
       </c>
       <c r="F6">
-        <v>370.61599999999999</v>
+        <v>116.351</v>
       </c>
       <c r="G6">
-        <v>599.15200000000004</v>
+        <v>1143.098</v>
       </c>
       <c r="H6">
-        <v>10545.096</v>
+        <v>7375.4579999999996</v>
       </c>
       <c r="I6">
-        <v>32.055</v>
+        <v>104.149</v>
       </c>
       <c r="J6">
-        <v>6853.1819999999998</v>
+        <v>3394.011</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>402.10599999999999</v>
+        <v>411.45299999999997</v>
       </c>
       <c r="O6">
-        <v>7853.2</v>
+        <v>3963.0129999999999</v>
       </c>
       <c r="P6">
-        <v>6885.6989999999996</v>
+        <v>3423.0970000000002</v>
       </c>
       <c r="Q6">
-        <v>4.5960000000000001</v>
+        <v>267.90699999999998</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>1300</v>
+        <v>1966</v>
       </c>
       <c r="T6">
-        <v>2691.8960000000002</v>
+        <v>3412.4450000000002</v>
       </c>
       <c r="U6">
-        <v>80.12</v>
+        <v>804.60199999999998</v>
       </c>
       <c r="V6">
-        <v>188.18</v>
+        <v>53.222000000000001</v>
       </c>
       <c r="W6">
-        <v>-4.774</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-80.195999999999998</v>
+        <v>20.38</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>321.36599999999999</v>
       </c>
       <c r="AA6">
-        <v>48.911000000000001</v>
+        <v>-103.04900000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>50.030999999999999</v>
+        <v>-103.393</v>
       </c>
       <c r="D7">
-        <v>551.745</v>
+        <v>220.61699999999999</v>
       </c>
       <c r="E7">
-        <v>108.88200000000001</v>
+        <v>186.31100000000001</v>
       </c>
       <c r="F7">
-        <v>397.35300000000001</v>
+        <v>114.82599999999999</v>
       </c>
       <c r="G7">
-        <v>1648.009</v>
+        <v>1130.127</v>
       </c>
       <c r="H7">
-        <v>12124.656000000001</v>
+        <v>7282.4780000000001</v>
       </c>
       <c r="I7">
-        <v>31.908999999999999</v>
+        <v>93.484999999999999</v>
       </c>
       <c r="J7">
-        <v>8343.1560000000009</v>
+        <v>3095.192</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-913.01599999999996</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>425.84199999999998</v>
+        <v>718.44600000000003</v>
       </c>
       <c r="O7">
-        <v>9387.99</v>
+        <v>3973.3490000000002</v>
       </c>
       <c r="P7">
-        <v>8420.9320000000007</v>
+        <v>3437.9290000000001</v>
       </c>
       <c r="Q7">
-        <v>983.56399999999996</v>
+        <v>-24.584</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2736.6660000000002</v>
+        <v>3309.1289999999999</v>
       </c>
       <c r="U7">
-        <v>1063.684</v>
+        <v>780.01800000000003</v>
       </c>
       <c r="V7">
-        <v>162.21199999999999</v>
+        <v>16.041</v>
       </c>
       <c r="W7">
-        <v>-2.4809999999999999</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1104.933</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>34.554000000000002</v>
       </c>
       <c r="AA7">
-        <v>50.030999999999999</v>
+        <v>-103.393</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>116.01300000000001</v>
+        <v>-68.597999999999999</v>
       </c>
       <c r="D8">
-        <v>585.51099999999997</v>
+        <v>225.53100000000001</v>
       </c>
       <c r="E8">
-        <v>172.035</v>
+        <v>170.75200000000001</v>
       </c>
       <c r="F8">
-        <v>413.678</v>
+        <v>113.738</v>
       </c>
       <c r="G8">
-        <v>739.11</v>
+        <v>1037.26</v>
       </c>
       <c r="H8">
-        <v>12597.675999999999</v>
+        <v>7300.0349999999999</v>
       </c>
       <c r="I8">
-        <v>46.279000000000003</v>
+        <v>77.072000000000003</v>
       </c>
       <c r="J8">
-        <v>8307.7829999999994</v>
+        <v>3117.2570000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>489.12400000000002</v>
+        <v>736.65300000000002</v>
       </c>
       <c r="O8">
-        <v>9731.6779999999999</v>
+        <v>4018.8679999999999</v>
       </c>
       <c r="P8">
-        <v>8387.0859999999993</v>
+        <v>3468.9670000000001</v>
       </c>
       <c r="Q8">
-        <v>-967.50900000000001</v>
+        <v>-78.643000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2865.998</v>
+        <v>3281.1669999999999</v>
       </c>
       <c r="U8">
-        <v>96.174999999999997</v>
+        <v>701.375</v>
       </c>
       <c r="V8">
-        <v>162.13</v>
+        <v>53.948999999999998</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-55.695999999999998</v>
+        <v>-18.911999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.827</v>
       </c>
       <c r="AA8">
-        <v>116.01300000000001</v>
+        <v>-68.597999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>42.045000000000002</v>
+        <v>-65.628</v>
       </c>
       <c r="D9">
-        <v>621.33699999999999</v>
+        <v>227.42400000000001</v>
       </c>
       <c r="E9">
-        <v>201.58500000000001</v>
+        <v>163.28899999999999</v>
       </c>
       <c r="F9">
-        <v>435.99400000000003</v>
+        <v>109.44499999999999</v>
       </c>
       <c r="G9">
-        <v>777.37599999999998</v>
+        <v>912.49599999999998</v>
       </c>
       <c r="H9">
-        <v>12736.419</v>
+        <v>7044.4650000000001</v>
       </c>
       <c r="I9">
-        <v>48.372999999999998</v>
+        <v>75.683999999999997</v>
       </c>
       <c r="J9">
-        <v>8295.0709999999999</v>
+        <v>2998.4180000000001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>531.81700000000001</v>
+        <v>707.56</v>
       </c>
       <c r="O9">
-        <v>9793.6139999999996</v>
+        <v>3872.9259999999999</v>
       </c>
       <c r="P9">
-        <v>8383.1640000000007</v>
+        <v>3367.509</v>
       </c>
       <c r="Q9">
-        <v>22.728000000000002</v>
+        <v>-96.055999999999997</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2942.8049999999998</v>
+        <v>3171.5390000000002</v>
       </c>
       <c r="U9">
-        <v>118.90300000000001</v>
+        <v>605.31899999999996</v>
       </c>
       <c r="V9">
-        <v>200.11600000000001</v>
+        <v>12.382999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-18.25</v>
+        <v>-136.715</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>42.838000000000001</v>
       </c>
       <c r="AA9">
-        <v>42.045000000000002</v>
+        <v>-65.628</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-19.504999999999999</v>
+        <v>-34.902000000000001</v>
       </c>
       <c r="D10">
-        <v>674.08699999999999</v>
+        <v>227.96100000000001</v>
       </c>
       <c r="E10">
-        <v>192.833</v>
+        <v>125.95</v>
       </c>
       <c r="F10">
-        <v>456.666</v>
+        <v>117.325</v>
       </c>
       <c r="G10">
-        <v>1581.3240000000001</v>
+        <v>751.38400000000001</v>
       </c>
       <c r="H10">
-        <v>16088.709000000001</v>
+        <v>6892.6009999999997</v>
       </c>
       <c r="I10">
-        <v>115.999</v>
+        <v>63.851999999999997</v>
       </c>
       <c r="J10">
-        <v>10923.186</v>
+        <v>3968.7240000000002</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,161 +1556,161 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1237.8579999999999</v>
+        <v>360.76900000000001</v>
       </c>
       <c r="O10">
-        <v>13137.445</v>
+        <v>4512.72</v>
       </c>
       <c r="P10">
-        <v>11611.242</v>
+        <v>3982.9740000000002</v>
       </c>
       <c r="Q10">
-        <v>322.46100000000001</v>
+        <v>-89.147000000000006</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>1600</v>
+        <v>1462</v>
       </c>
       <c r="T10">
-        <v>2951.2640000000001</v>
+        <v>2379.8809999999999</v>
       </c>
       <c r="U10">
-        <v>441.36399999999998</v>
+        <v>516.17200000000003</v>
       </c>
       <c r="V10">
-        <v>248.09899999999999</v>
+        <v>126.559</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>2755.8159999999998</v>
+        <v>-179.99700000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-4.7460000000000004</v>
       </c>
       <c r="AA10">
-        <v>-19.504999999999999</v>
+        <v>-34.902000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>15.462</v>
+        <v>-79.015000000000001</v>
       </c>
       <c r="D11">
-        <v>740.06</v>
+        <v>132.309</v>
       </c>
       <c r="E11">
-        <v>212.732</v>
+        <v>123.61</v>
       </c>
       <c r="F11">
-        <v>485.077</v>
+        <v>76.040000000000006</v>
       </c>
       <c r="G11">
-        <v>865.41499999999996</v>
+        <v>708.745</v>
       </c>
       <c r="H11">
-        <v>15372.504999999999</v>
+        <v>6759.0540000000001</v>
       </c>
       <c r="I11">
-        <v>96.873999999999995</v>
+        <v>50.744</v>
       </c>
       <c r="J11">
-        <v>10741.316999999999</v>
+        <v>3193.277</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-22.895</v>
       </c>
       <c r="M11">
-        <v>-834.755</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>637.62599999999998</v>
+        <v>331.77300000000002</v>
       </c>
       <c r="O11">
-        <v>12407.874</v>
+        <v>3709.7109999999998</v>
       </c>
       <c r="P11">
-        <v>10836.156000000001</v>
+        <v>3212.277</v>
       </c>
       <c r="Q11">
-        <v>-280.49900000000002</v>
+        <v>-37.271999999999998</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2964.6309999999999</v>
+        <v>3049.3429999999998</v>
       </c>
       <c r="U11">
-        <v>160.86500000000001</v>
+        <v>476.95</v>
       </c>
       <c r="V11">
-        <v>286.62599999999998</v>
+        <v>5.9320000000000004</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-436.48700000000002</v>
+        <v>-35.398000000000003</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>39.133000000000003</v>
       </c>
       <c r="AA11">
-        <v>15.462</v>
+        <v>-79.015000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>52.359000000000002</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>734.928</v>
+        <v>137.905</v>
       </c>
       <c r="E12">
-        <v>201.02799999999999</v>
+        <v>82.861999999999995</v>
       </c>
       <c r="F12">
-        <v>485.714</v>
+        <v>81.016000000000005</v>
       </c>
       <c r="G12">
-        <v>880.06600000000003</v>
+        <v>643.29100000000005</v>
       </c>
       <c r="H12">
-        <v>15392.584999999999</v>
+        <v>6754.3209999999999</v>
       </c>
       <c r="I12">
-        <v>112.16</v>
+        <v>41.536999999999999</v>
       </c>
       <c r="J12">
-        <v>10691.509</v>
+        <v>3158.4630000000002</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>644.19799999999998</v>
+        <v>382.84699999999998</v>
       </c>
       <c r="O12">
-        <v>12467.692999999999</v>
+        <v>3738.7449999999999</v>
       </c>
       <c r="P12">
-        <v>10788.522000000001</v>
+        <v>3186.8380000000002</v>
       </c>
       <c r="Q12">
-        <v>-33.978999999999999</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2924.8919999999998</v>
+        <v>3015.576</v>
       </c>
       <c r="U12">
-        <v>126.886</v>
+        <v>459.702</v>
       </c>
       <c r="V12">
-        <v>273.40100000000001</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-159.61000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>52.359000000000002</v>
+        <v>-94.649000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>45.835999999999999</v>
+        <v>-118.98099999999999</v>
       </c>
       <c r="D13">
-        <v>748.97699999999998</v>
+        <v>139.18100000000001</v>
       </c>
       <c r="E13">
-        <v>236.21100000000001</v>
+        <v>89.120999999999995</v>
       </c>
       <c r="F13">
-        <v>485.01299999999998</v>
+        <v>84.843000000000004</v>
       </c>
       <c r="G13">
-        <v>999.803</v>
+        <v>438.65499999999997</v>
       </c>
       <c r="H13">
-        <v>15567.572</v>
+        <v>6430.7070000000003</v>
       </c>
       <c r="I13">
-        <v>119.68899999999999</v>
+        <v>47.167999999999999</v>
       </c>
       <c r="J13">
-        <v>10660.075999999999</v>
+        <v>3670.6239999999998</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>679.71799999999996</v>
+        <v>360.74599999999998</v>
       </c>
       <c r="O13">
-        <v>12570.281999999999</v>
+        <v>4232.0439999999999</v>
       </c>
       <c r="P13">
-        <v>10775.454</v>
+        <v>3708.3739999999998</v>
       </c>
       <c r="Q13">
-        <v>91.763000000000005</v>
+        <v>-162.523</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2997.29</v>
+        <v>2198.663</v>
       </c>
       <c r="U13">
-        <v>218.649</v>
+        <v>255.672</v>
       </c>
       <c r="V13">
-        <v>278.839</v>
+        <v>-1.075</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-28.901</v>
+        <v>-270.69900000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>111.03400000000001</v>
       </c>
       <c r="AA13">
-        <v>45.835999999999999</v>
+        <v>-118.98099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-23.545999999999999</v>
+        <v>-158.96600000000001</v>
       </c>
       <c r="D14">
-        <v>798.41899999999998</v>
+        <v>147.762</v>
       </c>
       <c r="E14">
-        <v>249.92500000000001</v>
+        <v>39.621000000000002</v>
       </c>
       <c r="F14">
-        <v>519.78399999999999</v>
+        <v>89.064999999999998</v>
       </c>
       <c r="G14">
-        <v>892.68299999999999</v>
+        <v>2540.1999999999998</v>
       </c>
       <c r="H14">
-        <v>20594.907999999999</v>
+        <v>6612.2330000000002</v>
       </c>
       <c r="I14">
-        <v>145.38999999999999</v>
+        <v>9.7850000000000001</v>
       </c>
       <c r="J14">
-        <v>11490.914000000001</v>
+        <v>3689.5520000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>756.38699999999994</v>
+        <v>799.31500000000005</v>
       </c>
       <c r="O14">
-        <v>13653.733</v>
+        <v>4641.2349999999997</v>
       </c>
       <c r="P14">
-        <v>11594.5</v>
+        <v>3956.694</v>
       </c>
       <c r="Q14">
-        <v>4.7450000000000001</v>
+        <v>252.07300000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>1900</v>
+        <v>1390</v>
       </c>
       <c r="T14">
-        <v>6941.1750000000002</v>
+        <v>1970.998</v>
       </c>
       <c r="U14">
-        <v>223.39400000000001</v>
+        <v>409.584</v>
       </c>
       <c r="V14">
-        <v>398.79</v>
+        <v>315.55099999999999</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>4688.1310000000003</v>
+        <v>37.082000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>3.8570000000000002</v>
       </c>
       <c r="AA14">
-        <v>-23.545999999999999</v>
+        <v>-158.96600000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>101.497</v>
+        <v>-76.637</v>
       </c>
       <c r="D15">
-        <v>841.76300000000003</v>
+        <v>144.88300000000001</v>
       </c>
       <c r="E15">
-        <v>245.55600000000001</v>
+        <v>83.251999999999995</v>
       </c>
       <c r="F15">
-        <v>551.31899999999996</v>
+        <v>89.245999999999995</v>
       </c>
       <c r="G15">
-        <v>852.26800000000003</v>
+        <v>355.10199999999998</v>
       </c>
       <c r="H15">
-        <v>20569.666000000001</v>
+        <v>6446.88</v>
       </c>
       <c r="I15">
-        <v>127.053</v>
+        <v>37.234999999999999</v>
       </c>
       <c r="J15">
-        <v>11467.859</v>
+        <v>3138.866</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M15">
-        <v>-116.739</v>
+        <v>-270.10899999999998</v>
       </c>
       <c r="N15">
-        <v>708.27200000000005</v>
+        <v>396.87200000000001</v>
       </c>
       <c r="O15">
-        <v>13634.999</v>
+        <v>3757.9</v>
       </c>
       <c r="P15">
-        <v>11573.325999999999</v>
+        <v>3185.3270000000002</v>
       </c>
       <c r="Q15">
-        <v>-22.856999999999999</v>
+        <v>-259.233</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6934.6670000000004</v>
+        <v>2688.98</v>
       </c>
       <c r="U15">
-        <v>200.53700000000001</v>
+        <v>171.48500000000001</v>
       </c>
       <c r="V15">
-        <v>362.28300000000002</v>
+        <v>20.184000000000001</v>
       </c>
       <c r="W15">
-        <v>-128.19200000000001</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-174.459</v>
+        <v>-286.06700000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>12.571999999999999</v>
       </c>
       <c r="AA15">
-        <v>101.497</v>
+        <v>-76.637</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-50.78</v>
       </c>
       <c r="D16">
-        <v>878.24199999999996</v>
+        <v>150.755</v>
       </c>
       <c r="E16">
-        <v>304.01499999999999</v>
+        <v>36.591000000000001</v>
       </c>
       <c r="F16">
-        <v>549.30899999999997</v>
+        <v>93.031000000000006</v>
       </c>
       <c r="G16">
-        <v>947.74599999999998</v>
+        <v>2327.7739999999999</v>
       </c>
       <c r="H16">
-        <v>20672.059000000001</v>
+        <v>6231.35</v>
       </c>
       <c r="I16">
-        <v>132.529</v>
+        <v>9.06</v>
       </c>
       <c r="J16">
-        <v>11464.627</v>
+        <v>1898.752</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>795.87800000000004</v>
+        <v>1790.6569999999999</v>
       </c>
       <c r="O16">
-        <v>13792.623</v>
+        <v>3846.0030000000002</v>
       </c>
       <c r="P16">
-        <v>11570.251</v>
+        <v>3174.1370000000002</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>42.305999999999997</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>6879.4359999999997</v>
+        <v>2385.3470000000002</v>
       </c>
       <c r="U16">
-        <v>227.47900000000001</v>
+        <v>192.65700000000001</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>57.179000000000002</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-1.8049999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1.175</v>
       </c>
       <c r="AA16">
-        <v>34.009</v>
+        <v>-50.78</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>106.937</v>
+        <v>450.65600000000001</v>
       </c>
       <c r="D17">
-        <v>892.88300000000004</v>
+        <v>150.185</v>
       </c>
       <c r="E17">
-        <v>311.798</v>
+        <v>33.226999999999997</v>
       </c>
       <c r="F17">
-        <v>560.47</v>
+        <v>93.664000000000001</v>
       </c>
       <c r="G17">
-        <v>978.79499999999996</v>
+        <v>837.20600000000002</v>
       </c>
       <c r="H17">
-        <v>20784.86</v>
+        <v>4823.6130000000003</v>
       </c>
       <c r="I17">
-        <v>175.11</v>
+        <v>8.9629999999999992</v>
       </c>
       <c r="J17">
-        <v>11467.004999999999</v>
+        <v>2406.5529999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>845.56700000000001</v>
+        <v>179.81399999999999</v>
       </c>
       <c r="O17">
-        <v>13922.115</v>
+        <v>2741.1529999999998</v>
       </c>
       <c r="P17">
-        <v>11573.678</v>
+        <v>2406.5529999999999</v>
       </c>
       <c r="Q17">
-        <v>11.071</v>
+        <v>564.34799999999996</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6862.7449999999999</v>
+        <v>2082.46</v>
       </c>
       <c r="U17">
-        <v>238.55</v>
+        <v>757.005</v>
       </c>
       <c r="V17">
-        <v>428.55399999999997</v>
+        <v>2027.732</v>
       </c>
       <c r="W17">
-        <v>-127.848</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-123.277</v>
+        <v>-1307.597</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-147.04</v>
       </c>
       <c r="AA17">
-        <v>106.937</v>
+        <v>450.65600000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>148.07</v>
+        <v>-90.132000000000005</v>
       </c>
       <c r="D18">
-        <v>925.86800000000005</v>
+        <v>158.37899999999999</v>
       </c>
       <c r="E18">
-        <v>313.30799999999999</v>
+        <v>22.763999999999999</v>
       </c>
       <c r="F18">
-        <v>571.05100000000004</v>
+        <v>97.236000000000004</v>
       </c>
       <c r="G18">
-        <v>1282.9960000000001</v>
+        <v>638.71299999999997</v>
       </c>
       <c r="H18">
-        <v>21143.276000000002</v>
+        <v>4574.567</v>
       </c>
       <c r="I18">
-        <v>162.39699999999999</v>
+        <v>12.167999999999999</v>
       </c>
       <c r="J18">
-        <v>11807.526</v>
+        <v>2261.1880000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>932.13099999999997</v>
+        <v>285.065</v>
       </c>
       <c r="O18">
-        <v>14406.048000000001</v>
+        <v>2693.0569999999998</v>
       </c>
       <c r="P18">
-        <v>11920.861000000001</v>
+        <v>2358.4380000000001</v>
       </c>
       <c r="Q18">
-        <v>-62.93</v>
+        <v>-190.298</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>2400</v>
+        <v>847</v>
       </c>
       <c r="T18">
-        <v>6737.2280000000001</v>
+        <v>1881.51</v>
       </c>
       <c r="U18">
-        <v>151.31200000000001</v>
+        <v>566.70699999999999</v>
       </c>
       <c r="V18">
-        <v>473.9</v>
+        <v>-1952.1679999999999</v>
       </c>
       <c r="W18">
-        <v>-284.75900000000001</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>16.045999999999999</v>
+        <v>-90.953000000000003</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-142.989</v>
       </c>
       <c r="AA18">
-        <v>148.07</v>
+        <v>-90.132000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>122.78700000000001</v>
+        <v>-126.947</v>
       </c>
       <c r="D19">
-        <v>900.471</v>
+        <v>157.64699999999999</v>
       </c>
       <c r="E19">
-        <v>292.565</v>
+        <v>13.281000000000001</v>
       </c>
       <c r="F19">
-        <v>581.34</v>
+        <v>97.855999999999995</v>
       </c>
       <c r="G19">
-        <v>927.51400000000001</v>
+        <v>436.38400000000001</v>
       </c>
       <c r="H19">
-        <v>21105.476999999999</v>
+        <v>4303.3689999999997</v>
       </c>
       <c r="I19">
-        <v>146.89400000000001</v>
+        <v>6.7649999999999997</v>
       </c>
       <c r="J19">
-        <v>11954.093000000001</v>
+        <v>1552.346</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-21.986999999999998</v>
       </c>
       <c r="M19">
-        <v>-96.497</v>
+        <v>-173.69499999999999</v>
       </c>
       <c r="N19">
-        <v>821.95500000000004</v>
+        <v>340.80599999999998</v>
       </c>
       <c r="O19">
-        <v>14546.683999999999</v>
+        <v>2055.5160000000001</v>
       </c>
       <c r="P19">
-        <v>12070.091</v>
+        <v>1734.91</v>
       </c>
       <c r="Q19">
-        <v>64.533000000000001</v>
+        <v>-183.63</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6558.7929999999997</v>
+        <v>2247.8530000000001</v>
       </c>
       <c r="U19">
-        <v>240.15299999999999</v>
+        <v>383.077</v>
       </c>
       <c r="V19">
-        <v>460.79399999999998</v>
+        <v>26.321000000000002</v>
       </c>
       <c r="W19">
-        <v>-284.68200000000002</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-172.24100000000001</v>
+        <v>-199.98699999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="AA19">
-        <v>122.78700000000001</v>
+        <v>-126.947</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1153.3599999999999</v>
+        <v>-225.751</v>
       </c>
       <c r="D20">
-        <v>899.43700000000001</v>
+        <v>168.227</v>
       </c>
       <c r="E20">
-        <v>253.34200000000001</v>
+        <v>13.914999999999999</v>
       </c>
       <c r="F20">
-        <v>573.00599999999997</v>
+        <v>105.422</v>
       </c>
       <c r="G20">
-        <v>1117.56</v>
+        <v>390.99</v>
       </c>
       <c r="H20">
-        <v>21011.629000000001</v>
+        <v>4197.7969999999996</v>
       </c>
       <c r="I20">
-        <v>153.90899999999999</v>
+        <v>10.398</v>
       </c>
       <c r="J20">
-        <v>11036.602000000001</v>
+        <v>1975.6859999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>780.24400000000003</v>
+        <v>197.614</v>
       </c>
       <c r="O20">
-        <v>13607.393</v>
+        <v>2336.91</v>
       </c>
       <c r="P20">
-        <v>11131.304</v>
+        <v>2028.6130000000001</v>
       </c>
       <c r="Q20">
-        <v>98.456000000000003</v>
+        <v>-124.11499999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>7404.2359999999999</v>
+        <v>1860.8869999999999</v>
       </c>
       <c r="U20">
-        <v>338.60899999999998</v>
+        <v>258.96199999999999</v>
       </c>
       <c r="V20">
-        <v>462.96499999999997</v>
+        <v>32.161000000000001</v>
       </c>
       <c r="W20">
-        <v>-284.68299999999999</v>
+        <v>-4.125</v>
       </c>
       <c r="X20">
-        <v>-1251.924</v>
+        <v>-152.44</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1.643</v>
       </c>
       <c r="AA20">
-        <v>1153.3599999999999</v>
+        <v>-225.751</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>103.779</v>
+        <v>-25.536000000000001</v>
       </c>
       <c r="D21">
-        <v>918.10699999999997</v>
+        <v>172.25899999999999</v>
       </c>
       <c r="E21">
-        <v>324.56599999999997</v>
+        <v>15.737</v>
       </c>
       <c r="F21">
-        <v>584.24800000000005</v>
+        <v>108.255</v>
       </c>
       <c r="G21">
-        <v>1024.3710000000001</v>
+        <v>207.52099999999999</v>
       </c>
       <c r="H21">
-        <v>21995.644</v>
+        <v>4162.9709999999995</v>
       </c>
       <c r="I21">
-        <v>157.024</v>
+        <v>11.064</v>
       </c>
       <c r="J21">
-        <v>12039.178</v>
+        <v>1975.6859999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>824.54200000000003</v>
+        <v>284.90699999999998</v>
       </c>
       <c r="O21">
-        <v>14755.341</v>
+        <v>2427.154</v>
       </c>
       <c r="P21">
-        <v>12141.366</v>
+        <v>2120.6860000000001</v>
       </c>
       <c r="Q21">
-        <v>-154.49299999999999</v>
+        <v>-187.61199999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>7240.3029999999999</v>
+        <v>1735.817</v>
       </c>
       <c r="U21">
-        <v>184.11600000000001</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="V21">
-        <v>371.476</v>
+        <v>46.725000000000001</v>
       </c>
       <c r="W21">
-        <v>-284.68200000000002</v>
+        <v>-9.0950000000000006</v>
       </c>
       <c r="X21">
-        <v>724.17600000000004</v>
+        <v>-18.739000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-54.667999999999999</v>
       </c>
       <c r="AA21">
-        <v>103.779</v>
+        <v>-25.536000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>141.066</v>
+        <v>-21.692</v>
       </c>
       <c r="D22">
-        <v>945.83600000000001</v>
+        <v>178.626</v>
       </c>
       <c r="E22">
-        <v>344.39600000000002</v>
+        <v>22.361000000000001</v>
       </c>
       <c r="F22">
-        <v>603.83100000000002</v>
+        <v>113.241</v>
       </c>
       <c r="G22">
-        <v>981.245</v>
+        <v>221.29499999999999</v>
       </c>
       <c r="H22">
-        <v>21936.966</v>
+        <v>4131.317</v>
       </c>
       <c r="I22">
-        <v>159.62899999999999</v>
+        <v>12.23</v>
       </c>
       <c r="J22">
-        <v>12043.74</v>
+        <v>1975.6859999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>855.36900000000003</v>
+        <v>464.214</v>
       </c>
       <c r="O22">
-        <v>14847.745000000001</v>
+        <v>2614.2060000000001</v>
       </c>
       <c r="P22">
-        <v>12149.959000000001</v>
+        <v>2270.6860000000001</v>
       </c>
       <c r="Q22">
-        <v>-5.306</v>
+        <v>-5.9420000000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>2700</v>
+        <v>785</v>
       </c>
       <c r="T22">
-        <v>7089.2209999999995</v>
+        <v>1517.1110000000001</v>
       </c>
       <c r="U22">
-        <v>178.81</v>
+        <v>65.408000000000001</v>
       </c>
       <c r="V22">
-        <v>501.49</v>
+        <v>103.751</v>
       </c>
       <c r="W22">
-        <v>-306.38499999999999</v>
+        <v>-8.4039999999999999</v>
       </c>
       <c r="X22">
-        <v>-235.48699999999999</v>
+        <v>-74.47</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="AA22">
-        <v>141.066</v>
+        <v>-21.692</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>47.84</v>
+        <v>-6.7220000000000004</v>
       </c>
       <c r="D23">
-        <v>934.38400000000001</v>
+        <v>182.66499999999999</v>
       </c>
       <c r="E23">
-        <v>254.66900000000001</v>
+        <v>21.456</v>
       </c>
       <c r="F23">
-        <v>600.79200000000003</v>
+        <v>119.18899999999999</v>
       </c>
       <c r="G23">
-        <v>820.88199999999995</v>
+        <v>260.17899999999997</v>
       </c>
       <c r="H23">
-        <v>21718.251</v>
+        <v>4130.7560000000003</v>
       </c>
       <c r="I23">
-        <v>141.57400000000001</v>
+        <v>12.952999999999999</v>
       </c>
       <c r="J23">
-        <v>11778.175999999999</v>
+        <v>1975.586</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-5870.5420000000004</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>811.94600000000003</v>
+        <v>448.37599999999998</v>
       </c>
       <c r="O23">
-        <v>14565.257</v>
+        <v>2602.317</v>
       </c>
       <c r="P23">
-        <v>11865.999</v>
+        <v>2270.5859999999998</v>
       </c>
       <c r="Q23">
-        <v>-3.1080000000000001</v>
+        <v>32.023000000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7152.9939999999997</v>
+        <v>1528.4390000000001</v>
       </c>
       <c r="U23">
-        <v>175.702</v>
+        <v>97.430999999999997</v>
       </c>
       <c r="V23">
-        <v>437.65600000000001</v>
+        <v>55.921999999999997</v>
       </c>
       <c r="W23">
-        <v>-310.08699999999999</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X23">
-        <v>-345.59199999999998</v>
+        <v>-1.1359999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-0.38900000000000001</v>
       </c>
       <c r="AA23">
-        <v>47.84</v>
+        <v>-6.7220000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>86.058000000000007</v>
+        <v>-13.335000000000001</v>
       </c>
       <c r="D24">
-        <v>962.40899999999999</v>
+        <v>193.77600000000001</v>
       </c>
       <c r="E24">
-        <v>229.01499999999999</v>
+        <v>27.606000000000002</v>
       </c>
       <c r="F24">
-        <v>613.69000000000005</v>
+        <v>126.96899999999999</v>
       </c>
       <c r="G24">
-        <v>817.61500000000001</v>
+        <v>701.44899999999996</v>
       </c>
       <c r="H24">
-        <v>22153.074000000001</v>
+        <v>4562.1180000000004</v>
       </c>
       <c r="I24">
-        <v>143.08199999999999</v>
+        <v>16.686</v>
       </c>
       <c r="J24">
-        <v>12325.859</v>
+        <v>2965.5859999999998</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>875.96400000000006</v>
+        <v>177.77500000000001</v>
       </c>
       <c r="O24">
-        <v>15204.767</v>
+        <v>3326.3809999999999</v>
       </c>
       <c r="P24">
-        <v>12426.204</v>
+        <v>2975.5859999999998</v>
       </c>
       <c r="Q24">
-        <v>26.635999999999999</v>
+        <v>425.16399999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>6948.3069999999998</v>
+        <v>1235.7370000000001</v>
       </c>
       <c r="U24">
-        <v>202.33799999999999</v>
+        <v>522.59500000000003</v>
       </c>
       <c r="V24">
-        <v>480.52499999999998</v>
+        <v>68.106999999999999</v>
       </c>
       <c r="W24">
-        <v>-309.75299999999999</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X24">
-        <v>214.40299999999999</v>
+        <v>383.57100000000003</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="AA24">
-        <v>86.058000000000007</v>
+        <v>-13.335000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>98.364999999999995</v>
+        <v>-15.561</v>
       </c>
       <c r="D25">
-        <v>992.01599999999996</v>
+        <v>200.93899999999999</v>
       </c>
       <c r="E25">
-        <v>276.25900000000001</v>
+        <v>28.547000000000001</v>
       </c>
       <c r="F25">
-        <v>626.03800000000001</v>
+        <v>130.94300000000001</v>
       </c>
       <c r="G25">
-        <v>839.67499999999995</v>
+        <v>231.31200000000001</v>
       </c>
       <c r="H25">
-        <v>22171.723000000002</v>
+        <v>4519.6030000000001</v>
       </c>
       <c r="I25">
-        <v>148.916</v>
+        <v>16.667000000000002</v>
       </c>
       <c r="J25">
-        <v>12491.596</v>
+        <v>2953.915</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>897.73800000000006</v>
+        <v>187.53700000000001</v>
       </c>
       <c r="O25">
-        <v>15418.005999999999</v>
+        <v>3331.5169999999998</v>
       </c>
       <c r="P25">
-        <v>12592.958000000001</v>
+        <v>2963.915</v>
       </c>
       <c r="Q25">
-        <v>-46.119</v>
+        <v>-456.51100000000002</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>6753.7169999999996</v>
+        <v>1188.086</v>
       </c>
       <c r="U25">
-        <v>156.21899999999999</v>
+        <v>66.084000000000003</v>
       </c>
       <c r="V25">
-        <v>386.53399999999999</v>
+        <v>60.551000000000002</v>
       </c>
       <c r="W25">
-        <v>-309.779</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X25">
-        <v>-169.363</v>
+        <v>-178.46899999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-4.194</v>
       </c>
       <c r="AA25">
-        <v>98.366</v>
+        <v>-15.561</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>124.71</v>
+        <v>-6.2750000000000004</v>
       </c>
       <c r="D26">
-        <v>1032.4159999999999</v>
+        <v>210.84100000000001</v>
       </c>
       <c r="E26">
-        <v>440.73200000000003</v>
+        <v>36.453000000000003</v>
       </c>
       <c r="F26">
-        <v>640.18399999999997</v>
+        <v>138.15899999999999</v>
       </c>
       <c r="G26">
-        <v>1324.761</v>
+        <v>801.32299999999998</v>
       </c>
       <c r="H26">
-        <v>22675.092000000001</v>
+        <v>5007.4639999999999</v>
       </c>
       <c r="I26">
-        <v>188.51599999999999</v>
+        <v>18.545000000000002</v>
       </c>
       <c r="J26">
-        <v>12069.393</v>
+        <v>3513.89</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>961.35500000000002</v>
+        <v>200.79499999999999</v>
       </c>
       <c r="O26">
-        <v>15117.977000000001</v>
+        <v>3909.26</v>
       </c>
       <c r="P26">
-        <v>12171.142</v>
+        <v>3513.89</v>
       </c>
       <c r="Q26">
-        <v>411.38</v>
+        <v>526.63199999999995</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>3200</v>
+        <v>1160</v>
       </c>
       <c r="T26">
-        <v>7557.1149999999998</v>
+        <v>1098.204</v>
       </c>
       <c r="U26">
-        <v>567.59900000000005</v>
+        <v>592.71600000000001</v>
       </c>
       <c r="V26">
-        <v>477.54899999999998</v>
+        <v>96.835999999999999</v>
       </c>
       <c r="W26">
-        <v>-353.52699999999999</v>
+        <v>-4.97</v>
       </c>
       <c r="X26">
-        <v>204.26</v>
+        <v>474.94799999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AA26">
-        <v>124.71</v>
+        <v>-6.2750000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>119</v>
+        <v>-42.890999999999998</v>
       </c>
       <c r="D27">
-        <v>1016</v>
+        <v>315.709</v>
       </c>
       <c r="E27">
-        <v>302.697</v>
+        <v>32.734999999999999</v>
       </c>
       <c r="F27">
-        <v>652</v>
+        <v>197.34100000000001</v>
       </c>
       <c r="G27">
-        <v>916.44899999999996</v>
+        <v>410.47</v>
       </c>
       <c r="H27">
-        <v>23776.842000000001</v>
+        <v>10628.109</v>
       </c>
       <c r="I27">
-        <v>154.75299999999999</v>
+        <v>27.512</v>
       </c>
       <c r="J27">
-        <v>13380.091</v>
+        <v>5989.741</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1099</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>902.19500000000005</v>
+        <v>259.79399999999998</v>
       </c>
       <c r="O27">
-        <v>16413.362000000001</v>
+        <v>6797.32</v>
       </c>
       <c r="P27">
-        <v>13492.973</v>
+        <v>5996.241</v>
       </c>
       <c r="Q27">
-        <v>-372</v>
+        <v>-468.18</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7363.48</v>
+        <v>3830.7890000000002</v>
       </c>
       <c r="U27">
-        <v>205.19200000000001</v>
+        <v>124.536</v>
       </c>
       <c r="V27">
-        <v>442</v>
+        <v>48.756</v>
       </c>
       <c r="W27">
-        <v>-348</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X27">
-        <v>949</v>
+        <v>16.724</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>2.536</v>
       </c>
       <c r="AA27">
-        <v>119</v>
+        <v>-42.890999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>112</v>
+        <v>-32.74</v>
       </c>
       <c r="D28">
-        <v>1038</v>
+        <v>342.87</v>
       </c>
       <c r="E28">
-        <v>305.98200000000003</v>
+        <v>38.667999999999999</v>
       </c>
       <c r="F28">
-        <v>665</v>
+        <v>216.02500000000001</v>
       </c>
       <c r="G28">
-        <v>951.33500000000004</v>
+        <v>374.37200000000001</v>
       </c>
       <c r="H28">
-        <v>24483.624</v>
+        <v>10621.022999999999</v>
       </c>
       <c r="I28">
-        <v>178.92699999999999</v>
+        <v>23.521999999999998</v>
       </c>
       <c r="J28">
-        <v>13726.333000000001</v>
+        <v>5990.6840000000002</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>997.91200000000003</v>
+        <v>238.40899999999999</v>
       </c>
       <c r="O28">
-        <v>16893.314999999999</v>
+        <v>6794.9070000000002</v>
       </c>
       <c r="P28">
-        <v>13841.264999999999</v>
+        <v>5997.1840000000002</v>
       </c>
       <c r="Q28">
-        <v>-2</v>
+        <v>-32.103999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>7590.3090000000002</v>
+        <v>3826.116</v>
       </c>
       <c r="U28">
-        <v>199.66300000000001</v>
+        <v>92.432000000000002</v>
       </c>
       <c r="V28">
-        <v>489</v>
+        <v>69.981999999999999</v>
       </c>
       <c r="W28">
-        <v>-348</v>
+        <v>-4.9710000000000001</v>
       </c>
       <c r="X28">
-        <v>420</v>
+        <v>-24.795000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-0.254</v>
       </c>
       <c r="AA28">
-        <v>112</v>
+        <v>-32.74</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>115</v>
+        <v>-67.013000000000005</v>
       </c>
       <c r="D29">
-        <v>1063</v>
+        <v>351.74400000000003</v>
       </c>
       <c r="E29">
-        <v>317.85599999999999</v>
+        <v>49.731999999999999</v>
       </c>
       <c r="F29">
-        <v>675</v>
+        <v>222.84899999999999</v>
       </c>
       <c r="G29">
-        <v>7474.5550000000003</v>
+        <v>421.42</v>
       </c>
       <c r="H29">
-        <v>31011.756000000001</v>
+        <v>10506.316000000001</v>
       </c>
       <c r="I29">
-        <v>179.33500000000001</v>
+        <v>25.635999999999999</v>
       </c>
       <c r="J29">
-        <v>15090.217000000001</v>
+        <v>5990.0020000000004</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1048.8710000000001</v>
+        <v>255.333</v>
       </c>
       <c r="O29">
-        <v>18339.423999999999</v>
+        <v>6783.1469999999999</v>
       </c>
       <c r="P29">
-        <v>15204.415000000001</v>
+        <v>5996.5020000000004</v>
       </c>
       <c r="Q29">
-        <v>6516</v>
+        <v>27.37</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>12672.332</v>
+        <v>3723.1689999999999</v>
       </c>
       <c r="U29">
-        <v>6719.134</v>
+        <v>119.80200000000001</v>
       </c>
       <c r="V29">
-        <v>482</v>
+        <v>101.67700000000001</v>
       </c>
       <c r="W29">
-        <v>-386</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X29">
-        <v>6330</v>
+        <v>-4.0810000000000004</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="AA29">
-        <v>115</v>
+        <v>-67.013000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>99</v>
+        <v>-80.168999999999997</v>
       </c>
       <c r="D30">
-        <v>1238</v>
+        <v>375.16300000000001</v>
       </c>
       <c r="E30">
-        <v>484</v>
+        <v>56.103000000000002</v>
       </c>
       <c r="F30">
-        <v>799</v>
+        <v>240.18700000000001</v>
       </c>
       <c r="G30">
-        <v>1134</v>
+        <v>497.255</v>
       </c>
       <c r="H30">
-        <v>32229</v>
+        <v>10488.133</v>
       </c>
       <c r="I30">
-        <v>249</v>
+        <v>37.366</v>
       </c>
       <c r="J30">
-        <v>15817</v>
+        <v>6049.0510000000004</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,120 +3216,120 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1292</v>
+        <v>371.98700000000002</v>
       </c>
       <c r="O30">
-        <v>19890</v>
+        <v>7007.424</v>
       </c>
       <c r="P30">
-        <v>16159</v>
+        <v>6134.5360000000001</v>
       </c>
       <c r="Q30">
-        <v>-6399</v>
+        <v>-44.557000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="T30">
-        <v>12339</v>
+        <v>3480.7089999999998</v>
       </c>
       <c r="U30">
-        <v>314</v>
+        <v>75.245000000000005</v>
       </c>
       <c r="V30">
-        <v>630</v>
+        <v>129.94</v>
       </c>
       <c r="W30">
-        <v>-457</v>
+        <v>-4.97</v>
       </c>
       <c r="X30">
-        <v>493</v>
+        <v>-65.63</v>
       </c>
       <c r="Y30">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-3.6640000000000001</v>
       </c>
       <c r="AA30">
-        <v>99</v>
+        <v>-80.168999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>114</v>
+        <v>-13.173</v>
       </c>
       <c r="D31">
-        <v>1299</v>
+        <v>370.62099999999998</v>
       </c>
       <c r="E31">
-        <v>502</v>
+        <v>60.161999999999999</v>
       </c>
       <c r="F31">
-        <v>866</v>
+        <v>239.83</v>
       </c>
       <c r="G31">
-        <v>1074</v>
+        <v>543.36</v>
       </c>
       <c r="H31">
-        <v>32250</v>
+        <v>10470.362999999999</v>
       </c>
       <c r="I31">
-        <v>248</v>
+        <v>32.377000000000002</v>
       </c>
       <c r="J31">
-        <v>15616</v>
+        <v>5986.9780000000001</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2400</v>
+        <v>-1.625</v>
       </c>
       <c r="N31">
-        <v>1187</v>
+        <v>432.56900000000002</v>
       </c>
       <c r="O31">
-        <v>19418</v>
+        <v>7110.3670000000002</v>
       </c>
       <c r="P31">
-        <v>15746</v>
+        <v>6143.4780000000001</v>
       </c>
       <c r="Q31">
-        <v>-95</v>
+        <v>21.986999999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>12832</v>
+        <v>3359.9960000000001</v>
       </c>
       <c r="U31">
-        <v>220</v>
+        <v>97.231999999999999</v>
       </c>
       <c r="V31">
-        <v>452</v>
+        <v>67.792000000000002</v>
       </c>
       <c r="W31">
-        <v>-471</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X31">
-        <v>-163</v>
+        <v>15.161</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>114</v>
+        <v>-13.173</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>180</v>
+        <v>60.338999999999999</v>
       </c>
       <c r="D32">
-        <v>1330</v>
+        <v>379.51299999999998</v>
       </c>
       <c r="E32">
-        <v>576</v>
+        <v>58.621000000000002</v>
       </c>
       <c r="F32">
-        <v>876</v>
+        <v>243.947</v>
       </c>
       <c r="G32">
-        <v>1164</v>
+        <v>539.274</v>
       </c>
       <c r="H32">
-        <v>32374</v>
+        <v>10477.82</v>
       </c>
       <c r="I32">
-        <v>272</v>
+        <v>33.152999999999999</v>
       </c>
       <c r="J32">
-        <v>15844</v>
+        <v>5986.2449999999999</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1286</v>
+        <v>435.36700000000002</v>
       </c>
       <c r="O32">
-        <v>19808</v>
+        <v>6989.1049999999996</v>
       </c>
       <c r="P32">
-        <v>15956</v>
+        <v>6142.7449999999999</v>
       </c>
       <c r="Q32">
-        <v>-9</v>
+        <v>1.522</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>12566</v>
+        <v>3488.7150000000001</v>
       </c>
       <c r="U32">
-        <v>206</v>
+        <v>98.754000000000005</v>
       </c>
       <c r="V32">
-        <v>659</v>
+        <v>148.31899999999999</v>
       </c>
       <c r="W32">
-        <v>-465</v>
+        <v>-4.97</v>
       </c>
       <c r="X32">
-        <v>-273</v>
+        <v>-7.8019999999999996</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>180</v>
+        <v>60.338999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>164</v>
+        <v>-32.207000000000001</v>
       </c>
       <c r="D33">
-        <v>1375</v>
+        <v>384.34800000000001</v>
       </c>
       <c r="E33">
-        <v>557</v>
+        <v>58.085999999999999</v>
       </c>
       <c r="F33">
-        <v>901</v>
+        <v>248.04900000000001</v>
       </c>
       <c r="G33">
-        <v>1249</v>
+        <v>507.274</v>
       </c>
       <c r="H33">
-        <v>32644</v>
+        <v>10449.865</v>
       </c>
       <c r="I33">
-        <v>302</v>
+        <v>37.593000000000004</v>
       </c>
       <c r="J33">
-        <v>16313</v>
+        <v>5921.8459999999995</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1304</v>
+        <v>450.51600000000002</v>
       </c>
       <c r="O33">
-        <v>20349</v>
+        <v>6980.625</v>
       </c>
       <c r="P33">
-        <v>16424</v>
+        <v>6088.3459999999995</v>
       </c>
       <c r="Q33">
-        <v>117</v>
+        <v>-25.65</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>12295</v>
+        <v>3469.24</v>
       </c>
       <c r="U33">
-        <v>323</v>
+        <v>73.103999999999999</v>
       </c>
       <c r="V33">
-        <v>664</v>
+        <v>129.64400000000001</v>
       </c>
       <c r="W33">
-        <v>-464</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X33">
-        <v>-44</v>
+        <v>15.334</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>164</v>
+        <v>-32.207000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>164</v>
+        <v>-63.817</v>
       </c>
       <c r="D34">
-        <v>1366</v>
+        <v>392.02199999999999</v>
       </c>
       <c r="E34">
-        <v>593</v>
+        <v>67.271000000000001</v>
       </c>
       <c r="F34">
-        <v>883</v>
+        <v>256.10300000000001</v>
       </c>
       <c r="G34">
-        <v>1229</v>
+        <v>485.16800000000001</v>
       </c>
       <c r="H34">
-        <v>32762</v>
+        <v>10361.722</v>
       </c>
       <c r="I34">
-        <v>313</v>
+        <v>33.808</v>
       </c>
       <c r="J34">
-        <v>16348</v>
+        <v>6124.6040000000003</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1506</v>
+        <v>834.35799999999995</v>
       </c>
       <c r="O34">
-        <v>21191</v>
+        <v>7331.1310000000003</v>
       </c>
       <c r="P34">
-        <v>16682</v>
+        <v>6643.36</v>
       </c>
       <c r="Q34">
-        <v>-40</v>
+        <v>82.114999999999995</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="T34">
-        <v>11571</v>
+        <v>3030.5909999999999</v>
       </c>
       <c r="U34">
-        <v>277</v>
+        <v>155.21899999999999</v>
       </c>
       <c r="V34">
-        <v>725</v>
+        <v>167.24600000000001</v>
       </c>
       <c r="W34">
-        <v>-495</v>
+        <v>-4.97</v>
       </c>
       <c r="X34">
-        <v>-253</v>
+        <v>25.024000000000001</v>
       </c>
       <c r="Y34">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>164</v>
+        <v>-63.817</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>193</v>
+        <v>10.577</v>
       </c>
       <c r="D35">
-        <v>1408</v>
+        <v>402.91</v>
       </c>
       <c r="E35">
-        <v>646</v>
+        <v>62.997</v>
       </c>
       <c r="F35">
-        <v>923</v>
+        <v>271.15100000000001</v>
       </c>
       <c r="G35">
-        <v>1193</v>
+        <v>936.779</v>
       </c>
       <c r="H35">
-        <v>37778</v>
+        <v>10749.903</v>
       </c>
       <c r="I35">
-        <v>311</v>
+        <v>26.135000000000002</v>
       </c>
       <c r="J35">
-        <v>16893</v>
+        <v>6718.7709999999997</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-1177</v>
+        <v>-397.73200000000003</v>
       </c>
       <c r="N35">
-        <v>1565</v>
+        <v>559.09799999999996</v>
       </c>
       <c r="O35">
-        <v>26032</v>
+        <v>7659.1959999999999</v>
       </c>
       <c r="P35">
-        <v>22841</v>
+        <v>6992.5789999999997</v>
       </c>
       <c r="Q35">
-        <v>-5</v>
+        <v>454.11799999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>11746</v>
+        <v>3090.7069999999999</v>
       </c>
       <c r="U35">
-        <v>245</v>
+        <v>609.33699999999999</v>
       </c>
       <c r="V35">
-        <v>512</v>
+        <v>118.05800000000001</v>
       </c>
       <c r="W35">
-        <v>-505</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X35">
-        <v>-28</v>
+        <v>374.34800000000001</v>
       </c>
       <c r="Y35">
-        <v>5565</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>193</v>
+        <v>10.577</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>216</v>
+        <v>-111.41800000000001</v>
       </c>
       <c r="D36">
-        <v>1447</v>
+        <v>409.87400000000002</v>
       </c>
       <c r="E36">
-        <v>698</v>
+        <v>58.167999999999999</v>
       </c>
       <c r="F36">
-        <v>945</v>
+        <v>275.483</v>
       </c>
       <c r="G36">
-        <v>1294</v>
+        <v>741.23400000000004</v>
       </c>
       <c r="H36">
-        <v>38147</v>
+        <v>10552.413</v>
       </c>
       <c r="I36">
-        <v>337</v>
+        <v>27.324000000000002</v>
       </c>
       <c r="J36">
-        <v>17236</v>
+        <v>6144.4059999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1698</v>
+        <v>732.49</v>
       </c>
       <c r="O36">
-        <v>26624</v>
+        <v>7313.5739999999996</v>
       </c>
       <c r="P36">
-        <v>23285</v>
+        <v>6554.9309999999996</v>
       </c>
       <c r="Q36">
-        <v>21</v>
+        <v>-274.34800000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>11523</v>
+        <v>3238.8389999999999</v>
       </c>
       <c r="U36">
-        <v>288</v>
+        <v>334.98899999999998</v>
       </c>
       <c r="V36">
-        <v>715</v>
+        <v>151.4</v>
       </c>
       <c r="W36">
-        <v>-496</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X36">
-        <v>-173</v>
+        <v>-383.863</v>
       </c>
       <c r="Y36">
-        <v>5662</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1.7390000000000001</v>
       </c>
       <c r="AA36">
-        <v>216</v>
+        <v>-111.41800000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>243</v>
+        <v>-31.638999999999999</v>
       </c>
       <c r="D37">
-        <v>1482</v>
+        <v>429.07900000000001</v>
       </c>
       <c r="E37">
-        <v>774</v>
+        <v>44.817999999999998</v>
       </c>
       <c r="F37">
-        <v>967</v>
+        <v>292.56700000000001</v>
       </c>
       <c r="G37">
-        <v>1253</v>
+        <v>675.29300000000001</v>
       </c>
       <c r="H37">
-        <v>38344</v>
+        <v>10483.218999999999</v>
       </c>
       <c r="I37">
-        <v>368</v>
+        <v>24.422999999999998</v>
       </c>
       <c r="J37">
-        <v>17517</v>
+        <v>6209.8320000000003</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1734</v>
+        <v>644.70399999999995</v>
       </c>
       <c r="O37">
-        <v>27019</v>
+        <v>7316.2780000000002</v>
       </c>
       <c r="P37">
-        <v>23626</v>
+        <v>6535.5010000000002</v>
       </c>
       <c r="Q37">
-        <v>-104</v>
+        <v>-66.158000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>11325</v>
+        <v>3166.9409999999998</v>
       </c>
       <c r="U37">
-        <v>182</v>
+        <v>268.83100000000002</v>
       </c>
       <c r="V37">
-        <v>663</v>
+        <v>124.215</v>
       </c>
       <c r="W37">
-        <v>-499</v>
+        <v>-4.97</v>
       </c>
       <c r="X37">
-        <v>-228</v>
+        <v>-157.28</v>
       </c>
       <c r="Y37">
-        <v>5713</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="AA37">
-        <v>242</v>
+        <v>-31.638999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>208</v>
+        <v>18.148</v>
       </c>
       <c r="D38">
-        <v>1426</v>
+        <v>443.54399999999998</v>
       </c>
       <c r="E38">
-        <v>710</v>
+        <v>71.733000000000004</v>
       </c>
       <c r="F38">
-        <v>942</v>
+        <v>296.83800000000002</v>
       </c>
       <c r="G38">
-        <v>1204</v>
+        <v>1196.0329999999999</v>
       </c>
       <c r="H38">
-        <v>38457</v>
+        <v>10956.606</v>
       </c>
       <c r="I38">
-        <v>334</v>
+        <v>33.052999999999997</v>
       </c>
       <c r="J38">
-        <v>17794</v>
+        <v>6502.4350000000004</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1920</v>
+        <v>754.10500000000002</v>
       </c>
       <c r="O38">
-        <v>27968</v>
+        <v>7704.8670000000002</v>
       </c>
       <c r="P38">
-        <v>23931</v>
+        <v>6879.7520000000004</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>497.315</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="T38">
-        <v>10489</v>
+        <v>3251.739</v>
       </c>
       <c r="U38">
-        <v>196</v>
+        <v>766.14599999999996</v>
       </c>
       <c r="V38">
-        <v>808</v>
+        <v>177.583</v>
       </c>
       <c r="W38">
-        <v>-525</v>
+        <v>-4.97</v>
       </c>
       <c r="X38">
-        <v>-263</v>
+        <v>381.19099999999997</v>
       </c>
       <c r="Y38">
-        <v>5738</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>208</v>
+        <v>18.148</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>185</v>
+        <v>-119.27500000000001</v>
       </c>
       <c r="D39">
-        <v>1421</v>
+        <v>444.327</v>
       </c>
       <c r="E39">
-        <v>618</v>
+        <v>41.265000000000001</v>
       </c>
       <c r="F39">
-        <v>947</v>
+        <v>304.27600000000001</v>
       </c>
       <c r="G39">
-        <v>1247</v>
+        <v>814.06899999999996</v>
       </c>
       <c r="H39">
-        <v>38616</v>
+        <v>10560.509</v>
       </c>
       <c r="I39">
-        <v>296</v>
+        <v>24.771000000000001</v>
       </c>
       <c r="J39">
-        <v>17525</v>
+        <v>6441.9279999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-621</v>
+        <v>-2153.884</v>
       </c>
       <c r="N39">
-        <v>2669</v>
+        <v>627.37599999999998</v>
       </c>
       <c r="O39">
-        <v>28495</v>
+        <v>7557.5140000000001</v>
       </c>
       <c r="P39">
-        <v>24562</v>
+        <v>6740.5829999999996</v>
       </c>
       <c r="Q39">
-        <v>134</v>
+        <v>-368.65</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>10121</v>
+        <v>3002.9949999999999</v>
       </c>
       <c r="U39">
-        <v>310</v>
+        <v>397.49599999999998</v>
       </c>
       <c r="V39">
-        <v>653</v>
+        <v>84.257000000000005</v>
       </c>
       <c r="W39">
-        <v>-541</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X39">
-        <v>-50</v>
+        <v>-396.036</v>
       </c>
       <c r="Y39">
-        <v>5788</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-21.8</v>
       </c>
       <c r="AA39">
-        <v>185</v>
+        <v>-119.27500000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>201</v>
+        <v>-97.528999999999996</v>
       </c>
       <c r="D40">
-        <v>1440</v>
+        <v>456.12700000000001</v>
       </c>
       <c r="E40">
-        <v>573</v>
+        <v>49.054000000000002</v>
       </c>
       <c r="F40">
-        <v>954</v>
+        <v>310.73500000000001</v>
       </c>
       <c r="G40">
-        <v>3436</v>
+        <v>672.21900000000005</v>
       </c>
       <c r="H40">
-        <v>40901</v>
+        <v>10352.414000000001</v>
       </c>
       <c r="I40">
-        <v>280</v>
+        <v>26.074000000000002</v>
       </c>
       <c r="J40">
-        <v>20789</v>
+        <v>6520.1210000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1964</v>
+        <v>572.46699999999998</v>
       </c>
       <c r="O40">
-        <v>31075</v>
+        <v>7554.4269999999997</v>
       </c>
       <c r="P40">
-        <v>27035</v>
+        <v>6748.6469999999999</v>
       </c>
       <c r="Q40">
-        <v>2201</v>
+        <v>-155.40899999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>9826</v>
+        <v>2797.9870000000001</v>
       </c>
       <c r="U40">
-        <v>2514</v>
+        <v>242.08699999999999</v>
       </c>
       <c r="V40">
-        <v>756</v>
+        <v>163.95</v>
       </c>
       <c r="W40">
-        <v>-530</v>
+        <v>-4.9710000000000001</v>
       </c>
       <c r="X40">
-        <v>1867</v>
+        <v>-263.22300000000001</v>
       </c>
       <c r="Y40">
-        <v>5840</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>200</v>
+        <v>-97.528999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>162</v>
+        <v>-135.00899999999999</v>
       </c>
       <c r="D41">
-        <v>1486</v>
+        <v>481.89</v>
       </c>
       <c r="E41">
-        <v>600</v>
+        <v>81.319999999999993</v>
       </c>
       <c r="F41">
-        <v>999</v>
+        <v>338.89</v>
       </c>
       <c r="G41">
-        <v>1184</v>
+        <v>754.30499999999995</v>
       </c>
       <c r="H41">
-        <v>38786</v>
+        <v>10653.242</v>
       </c>
       <c r="I41">
-        <v>264</v>
+        <v>28.1</v>
       </c>
       <c r="J41">
-        <v>18961</v>
+        <v>6802.4430000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1925</v>
+        <v>669.79100000000005</v>
       </c>
       <c r="O41">
-        <v>29284</v>
+        <v>7955.8959999999997</v>
       </c>
       <c r="P41">
-        <v>25333</v>
+        <v>7059.4219999999996</v>
       </c>
       <c r="Q41">
-        <v>-2252</v>
+        <v>61.892000000000003</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>9502</v>
+        <v>2697.346</v>
       </c>
       <c r="U41">
-        <v>242</v>
+        <v>303.97899999999998</v>
       </c>
       <c r="V41">
-        <v>661</v>
+        <v>159.44800000000001</v>
       </c>
       <c r="W41">
-        <v>-545</v>
+        <v>-4.9690000000000003</v>
       </c>
       <c r="X41">
-        <v>-2468</v>
+        <v>88.025999999999996</v>
       </c>
       <c r="Y41">
-        <v>5942</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="AA41">
-        <v>163</v>
+        <v>-135.00899999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>40.872999999999998</v>
+      </c>
+      <c r="D42">
+        <v>496.31400000000002</v>
+      </c>
+      <c r="E42">
+        <v>86.644999999999996</v>
+      </c>
+      <c r="F42">
+        <v>343.38</v>
+      </c>
+      <c r="G42">
+        <v>545.14499999999998</v>
+      </c>
+      <c r="H42">
+        <v>10469.529</v>
+      </c>
+      <c r="I42">
+        <v>39.649000000000001</v>
+      </c>
+      <c r="J42">
+        <v>6750.2070000000003</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>440.88499999999999</v>
+      </c>
+      <c r="O42">
+        <v>7707.9539999999997</v>
+      </c>
+      <c r="P42">
+        <v>6778.8940000000002</v>
+      </c>
+      <c r="Q42">
+        <v>-191.44800000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1200</v>
+      </c>
+      <c r="T42">
+        <v>2761.5749999999998</v>
+      </c>
+      <c r="U42">
+        <v>112.53100000000001</v>
+      </c>
+      <c r="V42">
+        <v>195.77500000000001</v>
+      </c>
+      <c r="W42">
+        <v>-4.97</v>
+      </c>
+      <c r="X42">
+        <v>-295.39100000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>40.872999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>40.017000000000003</v>
+      </c>
+      <c r="D43">
+        <v>499.03899999999999</v>
+      </c>
+      <c r="E43">
+        <v>77.771000000000001</v>
+      </c>
+      <c r="F43">
+        <v>353.4</v>
+      </c>
+      <c r="G43">
+        <v>516.07100000000003</v>
+      </c>
+      <c r="H43">
+        <v>10397.194</v>
+      </c>
+      <c r="I43">
+        <v>30.231000000000002</v>
+      </c>
+      <c r="J43">
+        <v>6706.9359999999997</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-58.521000000000001</v>
+      </c>
+      <c r="N43">
+        <v>392.72899999999998</v>
+      </c>
+      <c r="O43">
+        <v>7617.3850000000002</v>
+      </c>
+      <c r="P43">
+        <v>6736.4979999999996</v>
+      </c>
+      <c r="Q43">
+        <v>-30.210999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2779.8090000000002</v>
+      </c>
+      <c r="U43">
+        <v>82.32</v>
+      </c>
+      <c r="V43">
+        <v>127.514</v>
+      </c>
+      <c r="W43">
+        <v>-4.9690000000000003</v>
+      </c>
+      <c r="X43">
+        <v>-105.59</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>40.017000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>30.870999999999999</v>
+      </c>
+      <c r="D44">
+        <v>500.33600000000001</v>
+      </c>
+      <c r="E44">
+        <v>82.78</v>
+      </c>
+      <c r="F44">
+        <v>353.28699999999998</v>
+      </c>
+      <c r="G44">
+        <v>511.94200000000001</v>
+      </c>
+      <c r="H44">
+        <v>10385.32</v>
+      </c>
+      <c r="I44">
+        <v>32.691000000000003</v>
+      </c>
+      <c r="J44">
+        <v>6785.55</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>381.57299999999998</v>
+      </c>
+      <c r="O44">
+        <v>7699.4830000000002</v>
+      </c>
+      <c r="P44">
+        <v>6819.2610000000004</v>
+      </c>
+      <c r="Q44">
+        <v>25.795999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2685.837</v>
+      </c>
+      <c r="U44">
+        <v>108.116</v>
+      </c>
+      <c r="V44">
+        <v>156.29499999999999</v>
+      </c>
+      <c r="W44">
+        <v>-4.97</v>
+      </c>
+      <c r="X44">
+        <v>-54.941000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>30.870999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>51.277999999999999</v>
+      </c>
+      <c r="D45">
+        <v>513.88300000000004</v>
+      </c>
+      <c r="E45">
+        <v>91.912000000000006</v>
+      </c>
+      <c r="F45">
+        <v>367.041</v>
+      </c>
+      <c r="G45">
+        <v>522.28</v>
+      </c>
+      <c r="H45">
+        <v>10443.215</v>
+      </c>
+      <c r="I45">
+        <v>29.655000000000001</v>
+      </c>
+      <c r="J45">
+        <v>6853.5619999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>376.834</v>
+      </c>
+      <c r="O45">
+        <v>7824.7529999999997</v>
+      </c>
+      <c r="P45">
+        <v>6938.1220000000003</v>
+      </c>
+      <c r="Q45">
+        <v>-32.591999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2618.462</v>
+      </c>
+      <c r="U45">
+        <v>75.524000000000001</v>
+      </c>
+      <c r="V45">
+        <v>171.465</v>
+      </c>
+      <c r="W45">
+        <v>-4.774</v>
+      </c>
+      <c r="X45">
+        <v>-34.984999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>49.512</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>51.277999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>48.911000000000001</v>
+      </c>
+      <c r="D46">
+        <v>519.471</v>
+      </c>
+      <c r="E46">
+        <v>77.257999999999996</v>
+      </c>
+      <c r="F46">
+        <v>370.61599999999999</v>
+      </c>
+      <c r="G46">
+        <v>599.15200000000004</v>
+      </c>
+      <c r="H46">
+        <v>10545.096</v>
+      </c>
+      <c r="I46">
+        <v>32.055</v>
+      </c>
+      <c r="J46">
+        <v>6853.1819999999998</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>402.10599999999999</v>
+      </c>
+      <c r="O46">
+        <v>7853.2</v>
+      </c>
+      <c r="P46">
+        <v>6885.6989999999996</v>
+      </c>
+      <c r="Q46">
+        <v>4.5960000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>1300</v>
+      </c>
+      <c r="T46">
+        <v>2691.8960000000002</v>
+      </c>
+      <c r="U46">
+        <v>80.12</v>
+      </c>
+      <c r="V46">
+        <v>188.18</v>
+      </c>
+      <c r="W46">
+        <v>-4.774</v>
+      </c>
+      <c r="X46">
+        <v>-80.195999999999998</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>48.911000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>50.030999999999999</v>
+      </c>
+      <c r="D47">
+        <v>551.745</v>
+      </c>
+      <c r="E47">
+        <v>108.88200000000001</v>
+      </c>
+      <c r="F47">
+        <v>397.35300000000001</v>
+      </c>
+      <c r="G47">
+        <v>1648.009</v>
+      </c>
+      <c r="H47">
+        <v>12124.656000000001</v>
+      </c>
+      <c r="I47">
+        <v>31.908999999999999</v>
+      </c>
+      <c r="J47">
+        <v>8343.1560000000009</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-913.01599999999996</v>
+      </c>
+      <c r="N47">
+        <v>425.84199999999998</v>
+      </c>
+      <c r="O47">
+        <v>9387.99</v>
+      </c>
+      <c r="P47">
+        <v>8420.9320000000007</v>
+      </c>
+      <c r="Q47">
+        <v>983.56399999999996</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2736.6660000000002</v>
+      </c>
+      <c r="U47">
+        <v>1063.684</v>
+      </c>
+      <c r="V47">
+        <v>162.21199999999999</v>
+      </c>
+      <c r="W47">
+        <v>-2.4809999999999999</v>
+      </c>
+      <c r="X47">
+        <v>1104.933</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>50.030999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>116.01300000000001</v>
+      </c>
+      <c r="D48">
+        <v>585.51099999999997</v>
+      </c>
+      <c r="E48">
+        <v>172.035</v>
+      </c>
+      <c r="F48">
+        <v>413.678</v>
+      </c>
+      <c r="G48">
+        <v>739.11</v>
+      </c>
+      <c r="H48">
+        <v>12597.675999999999</v>
+      </c>
+      <c r="I48">
+        <v>46.279000000000003</v>
+      </c>
+      <c r="J48">
+        <v>8307.7829999999994</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>489.12400000000002</v>
+      </c>
+      <c r="O48">
+        <v>9731.6779999999999</v>
+      </c>
+      <c r="P48">
+        <v>8387.0859999999993</v>
+      </c>
+      <c r="Q48">
+        <v>-967.50900000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2865.998</v>
+      </c>
+      <c r="U48">
+        <v>96.174999999999997</v>
+      </c>
+      <c r="V48">
+        <v>162.13</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-55.695999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>116.01300000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>42.045000000000002</v>
+      </c>
+      <c r="D49">
+        <v>621.33699999999999</v>
+      </c>
+      <c r="E49">
+        <v>201.58500000000001</v>
+      </c>
+      <c r="F49">
+        <v>435.99400000000003</v>
+      </c>
+      <c r="G49">
+        <v>777.37599999999998</v>
+      </c>
+      <c r="H49">
+        <v>12736.419</v>
+      </c>
+      <c r="I49">
+        <v>48.372999999999998</v>
+      </c>
+      <c r="J49">
+        <v>8295.0709999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>531.81700000000001</v>
+      </c>
+      <c r="O49">
+        <v>9793.6139999999996</v>
+      </c>
+      <c r="P49">
+        <v>8383.1640000000007</v>
+      </c>
+      <c r="Q49">
+        <v>22.728000000000002</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2942.8049999999998</v>
+      </c>
+      <c r="U49">
+        <v>118.90300000000001</v>
+      </c>
+      <c r="V49">
+        <v>200.11600000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-18.25</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>42.045000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-19.504999999999999</v>
+      </c>
+      <c r="D50">
+        <v>674.08699999999999</v>
+      </c>
+      <c r="E50">
+        <v>192.833</v>
+      </c>
+      <c r="F50">
+        <v>456.666</v>
+      </c>
+      <c r="G50">
+        <v>1581.3240000000001</v>
+      </c>
+      <c r="H50">
+        <v>16088.709000000001</v>
+      </c>
+      <c r="I50">
+        <v>115.999</v>
+      </c>
+      <c r="J50">
+        <v>10923.186</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1237.8579999999999</v>
+      </c>
+      <c r="O50">
+        <v>13137.445</v>
+      </c>
+      <c r="P50">
+        <v>11611.242</v>
+      </c>
+      <c r="Q50">
+        <v>322.46100000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>1600</v>
+      </c>
+      <c r="T50">
+        <v>2951.2640000000001</v>
+      </c>
+      <c r="U50">
+        <v>441.36399999999998</v>
+      </c>
+      <c r="V50">
+        <v>248.09899999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>2755.8159999999998</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>-19.504999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>15.462</v>
+      </c>
+      <c r="D51">
+        <v>740.06</v>
+      </c>
+      <c r="E51">
+        <v>212.732</v>
+      </c>
+      <c r="F51">
+        <v>485.077</v>
+      </c>
+      <c r="G51">
+        <v>865.41499999999996</v>
+      </c>
+      <c r="H51">
+        <v>15372.504999999999</v>
+      </c>
+      <c r="I51">
+        <v>96.873999999999995</v>
+      </c>
+      <c r="J51">
+        <v>10741.316999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-834.755</v>
+      </c>
+      <c r="N51">
+        <v>637.62599999999998</v>
+      </c>
+      <c r="O51">
+        <v>12407.874</v>
+      </c>
+      <c r="P51">
+        <v>10836.156000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-280.49900000000002</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2964.6309999999999</v>
+      </c>
+      <c r="U51">
+        <v>160.86500000000001</v>
+      </c>
+      <c r="V51">
+        <v>286.62599999999998</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-436.48700000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>15.462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>52.359000000000002</v>
+      </c>
+      <c r="D52">
+        <v>734.928</v>
+      </c>
+      <c r="E52">
+        <v>201.02799999999999</v>
+      </c>
+      <c r="F52">
+        <v>485.714</v>
+      </c>
+      <c r="G52">
+        <v>880.06600000000003</v>
+      </c>
+      <c r="H52">
+        <v>15392.584999999999</v>
+      </c>
+      <c r="I52">
+        <v>112.16</v>
+      </c>
+      <c r="J52">
+        <v>10691.509</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>644.19799999999998</v>
+      </c>
+      <c r="O52">
+        <v>12467.692999999999</v>
+      </c>
+      <c r="P52">
+        <v>10788.522000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-33.978999999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2924.8919999999998</v>
+      </c>
+      <c r="U52">
+        <v>126.886</v>
+      </c>
+      <c r="V52">
+        <v>273.40100000000001</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-159.61000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>52.359000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>45.835999999999999</v>
+      </c>
+      <c r="D53">
+        <v>748.97699999999998</v>
+      </c>
+      <c r="E53">
+        <v>236.21100000000001</v>
+      </c>
+      <c r="F53">
+        <v>485.01299999999998</v>
+      </c>
+      <c r="G53">
+        <v>999.803</v>
+      </c>
+      <c r="H53">
+        <v>15567.572</v>
+      </c>
+      <c r="I53">
+        <v>119.68899999999999</v>
+      </c>
+      <c r="J53">
+        <v>10660.075999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>679.71799999999996</v>
+      </c>
+      <c r="O53">
+        <v>12570.281999999999</v>
+      </c>
+      <c r="P53">
+        <v>10775.454</v>
+      </c>
+      <c r="Q53">
+        <v>91.763000000000005</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2997.29</v>
+      </c>
+      <c r="U53">
+        <v>218.649</v>
+      </c>
+      <c r="V53">
+        <v>278.839</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-28.901</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>45.835999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-23.545999999999999</v>
+      </c>
+      <c r="D54">
+        <v>798.41899999999998</v>
+      </c>
+      <c r="E54">
+        <v>249.92500000000001</v>
+      </c>
+      <c r="F54">
+        <v>519.78399999999999</v>
+      </c>
+      <c r="G54">
+        <v>892.68299999999999</v>
+      </c>
+      <c r="H54">
+        <v>20594.907999999999</v>
+      </c>
+      <c r="I54">
+        <v>145.38999999999999</v>
+      </c>
+      <c r="J54">
+        <v>11490.914000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>756.38699999999994</v>
+      </c>
+      <c r="O54">
+        <v>13653.733</v>
+      </c>
+      <c r="P54">
+        <v>11594.5</v>
+      </c>
+      <c r="Q54">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>1900</v>
+      </c>
+      <c r="T54">
+        <v>6941.1750000000002</v>
+      </c>
+      <c r="U54">
+        <v>223.39400000000001</v>
+      </c>
+      <c r="V54">
+        <v>398.79</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>4688.1310000000003</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>-23.545999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>101.497</v>
+      </c>
+      <c r="D55">
+        <v>841.76300000000003</v>
+      </c>
+      <c r="E55">
+        <v>245.55600000000001</v>
+      </c>
+      <c r="F55">
+        <v>551.31899999999996</v>
+      </c>
+      <c r="G55">
+        <v>852.26800000000003</v>
+      </c>
+      <c r="H55">
+        <v>20569.666000000001</v>
+      </c>
+      <c r="I55">
+        <v>127.053</v>
+      </c>
+      <c r="J55">
+        <v>11467.859</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-116.739</v>
+      </c>
+      <c r="N55">
+        <v>708.27200000000005</v>
+      </c>
+      <c r="O55">
+        <v>13634.999</v>
+      </c>
+      <c r="P55">
+        <v>11573.325999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-22.856999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6934.6670000000004</v>
+      </c>
+      <c r="U55">
+        <v>200.53700000000001</v>
+      </c>
+      <c r="V55">
+        <v>362.28300000000002</v>
+      </c>
+      <c r="W55">
+        <v>-128.19200000000001</v>
+      </c>
+      <c r="X55">
+        <v>-174.459</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>101.497</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>878.24199999999996</v>
+      </c>
+      <c r="E56">
+        <v>304.01499999999999</v>
+      </c>
+      <c r="F56">
+        <v>549.30899999999997</v>
+      </c>
+      <c r="G56">
+        <v>947.74599999999998</v>
+      </c>
+      <c r="H56">
+        <v>20672.059000000001</v>
+      </c>
+      <c r="I56">
+        <v>132.529</v>
+      </c>
+      <c r="J56">
+        <v>11464.627</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>795.87800000000004</v>
+      </c>
+      <c r="O56">
+        <v>13792.623</v>
+      </c>
+      <c r="P56">
+        <v>11570.251</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6879.4359999999997</v>
+      </c>
+      <c r="U56">
+        <v>227.47900000000001</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>34.009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>106.937</v>
+      </c>
+      <c r="D57">
+        <v>892.88300000000004</v>
+      </c>
+      <c r="E57">
+        <v>311.798</v>
+      </c>
+      <c r="F57">
+        <v>560.47</v>
+      </c>
+      <c r="G57">
+        <v>978.79499999999996</v>
+      </c>
+      <c r="H57">
+        <v>20784.86</v>
+      </c>
+      <c r="I57">
+        <v>175.11</v>
+      </c>
+      <c r="J57">
+        <v>11467.004999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>845.56700000000001</v>
+      </c>
+      <c r="O57">
+        <v>13922.115</v>
+      </c>
+      <c r="P57">
+        <v>11573.678</v>
+      </c>
+      <c r="Q57">
+        <v>11.071</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>6862.7449999999999</v>
+      </c>
+      <c r="U57">
+        <v>238.55</v>
+      </c>
+      <c r="V57">
+        <v>428.55399999999997</v>
+      </c>
+      <c r="W57">
+        <v>-127.848</v>
+      </c>
+      <c r="X57">
+        <v>-123.277</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>106.937</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>148.07</v>
+      </c>
+      <c r="D58">
+        <v>925.86800000000005</v>
+      </c>
+      <c r="E58">
+        <v>313.30799999999999</v>
+      </c>
+      <c r="F58">
+        <v>571.05100000000004</v>
+      </c>
+      <c r="G58">
+        <v>1282.9960000000001</v>
+      </c>
+      <c r="H58">
+        <v>21143.276000000002</v>
+      </c>
+      <c r="I58">
+        <v>162.39699999999999</v>
+      </c>
+      <c r="J58">
+        <v>11807.526</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>932.13099999999997</v>
+      </c>
+      <c r="O58">
+        <v>14406.048000000001</v>
+      </c>
+      <c r="P58">
+        <v>11920.861000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-62.93</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2400</v>
+      </c>
+      <c r="T58">
+        <v>6737.2280000000001</v>
+      </c>
+      <c r="U58">
+        <v>151.31200000000001</v>
+      </c>
+      <c r="V58">
+        <v>473.9</v>
+      </c>
+      <c r="W58">
+        <v>-284.75900000000001</v>
+      </c>
+      <c r="X58">
+        <v>16.045999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>148.07</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>122.78700000000001</v>
+      </c>
+      <c r="D59">
+        <v>900.471</v>
+      </c>
+      <c r="E59">
+        <v>292.565</v>
+      </c>
+      <c r="F59">
+        <v>581.34</v>
+      </c>
+      <c r="G59">
+        <v>927.51400000000001</v>
+      </c>
+      <c r="H59">
+        <v>21105.476999999999</v>
+      </c>
+      <c r="I59">
+        <v>146.89400000000001</v>
+      </c>
+      <c r="J59">
+        <v>11954.093000000001</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-96.497</v>
+      </c>
+      <c r="N59">
+        <v>821.95500000000004</v>
+      </c>
+      <c r="O59">
+        <v>14546.683999999999</v>
+      </c>
+      <c r="P59">
+        <v>12070.091</v>
+      </c>
+      <c r="Q59">
+        <v>64.533000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6558.7929999999997</v>
+      </c>
+      <c r="U59">
+        <v>240.15299999999999</v>
+      </c>
+      <c r="V59">
+        <v>460.79399999999998</v>
+      </c>
+      <c r="W59">
+        <v>-284.68200000000002</v>
+      </c>
+      <c r="X59">
+        <v>-172.24100000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>122.78700000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>1153.3599999999999</v>
+      </c>
+      <c r="D60">
+        <v>899.43700000000001</v>
+      </c>
+      <c r="E60">
+        <v>253.34200000000001</v>
+      </c>
+      <c r="F60">
+        <v>573.00599999999997</v>
+      </c>
+      <c r="G60">
+        <v>1117.56</v>
+      </c>
+      <c r="H60">
+        <v>21011.629000000001</v>
+      </c>
+      <c r="I60">
+        <v>153.90899999999999</v>
+      </c>
+      <c r="J60">
+        <v>11036.602000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>780.24400000000003</v>
+      </c>
+      <c r="O60">
+        <v>13607.393</v>
+      </c>
+      <c r="P60">
+        <v>11131.304</v>
+      </c>
+      <c r="Q60">
+        <v>98.456000000000003</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7404.2359999999999</v>
+      </c>
+      <c r="U60">
+        <v>338.60899999999998</v>
+      </c>
+      <c r="V60">
+        <v>462.96499999999997</v>
+      </c>
+      <c r="W60">
+        <v>-284.68299999999999</v>
+      </c>
+      <c r="X60">
+        <v>-1251.924</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>1153.3599999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>103.779</v>
+      </c>
+      <c r="D61">
+        <v>918.10699999999997</v>
+      </c>
+      <c r="E61">
+        <v>324.56599999999997</v>
+      </c>
+      <c r="F61">
+        <v>584.24800000000005</v>
+      </c>
+      <c r="G61">
+        <v>1024.3710000000001</v>
+      </c>
+      <c r="H61">
+        <v>21995.644</v>
+      </c>
+      <c r="I61">
+        <v>157.024</v>
+      </c>
+      <c r="J61">
+        <v>12039.178</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>824.54200000000003</v>
+      </c>
+      <c r="O61">
+        <v>14755.341</v>
+      </c>
+      <c r="P61">
+        <v>12141.366</v>
+      </c>
+      <c r="Q61">
+        <v>-154.49299999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>7240.3029999999999</v>
+      </c>
+      <c r="U61">
+        <v>184.11600000000001</v>
+      </c>
+      <c r="V61">
+        <v>371.476</v>
+      </c>
+      <c r="W61">
+        <v>-284.68200000000002</v>
+      </c>
+      <c r="X61">
+        <v>724.17600000000004</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>103.779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>141.066</v>
+      </c>
+      <c r="D62">
+        <v>945.83600000000001</v>
+      </c>
+      <c r="E62">
+        <v>344.39600000000002</v>
+      </c>
+      <c r="F62">
+        <v>603.83100000000002</v>
+      </c>
+      <c r="G62">
+        <v>981.245</v>
+      </c>
+      <c r="H62">
+        <v>21936.966</v>
+      </c>
+      <c r="I62">
+        <v>159.62899999999999</v>
+      </c>
+      <c r="J62">
+        <v>12043.74</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>855.36900000000003</v>
+      </c>
+      <c r="O62">
+        <v>14847.745000000001</v>
+      </c>
+      <c r="P62">
+        <v>12149.959000000001</v>
+      </c>
+      <c r="Q62">
+        <v>-5.306</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>2700</v>
+      </c>
+      <c r="T62">
+        <v>7089.2209999999995</v>
+      </c>
+      <c r="U62">
+        <v>178.81</v>
+      </c>
+      <c r="V62">
+        <v>501.49</v>
+      </c>
+      <c r="W62">
+        <v>-306.38499999999999</v>
+      </c>
+      <c r="X62">
+        <v>-235.48699999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>141.066</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>47.84</v>
+      </c>
+      <c r="D63">
+        <v>934.38400000000001</v>
+      </c>
+      <c r="E63">
+        <v>254.66900000000001</v>
+      </c>
+      <c r="F63">
+        <v>600.79200000000003</v>
+      </c>
+      <c r="G63">
+        <v>820.88199999999995</v>
+      </c>
+      <c r="H63">
+        <v>21718.251</v>
+      </c>
+      <c r="I63">
+        <v>141.57400000000001</v>
+      </c>
+      <c r="J63">
+        <v>11778.175999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-5870.5420000000004</v>
+      </c>
+      <c r="N63">
+        <v>811.94600000000003</v>
+      </c>
+      <c r="O63">
+        <v>14565.257</v>
+      </c>
+      <c r="P63">
+        <v>11865.999</v>
+      </c>
+      <c r="Q63">
+        <v>-3.1080000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7152.9939999999997</v>
+      </c>
+      <c r="U63">
+        <v>175.702</v>
+      </c>
+      <c r="V63">
+        <v>437.65600000000001</v>
+      </c>
+      <c r="W63">
+        <v>-310.08699999999999</v>
+      </c>
+      <c r="X63">
+        <v>-345.59199999999998</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>47.84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>86.058000000000007</v>
+      </c>
+      <c r="D64">
+        <v>962.40899999999999</v>
+      </c>
+      <c r="E64">
+        <v>229.01499999999999</v>
+      </c>
+      <c r="F64">
+        <v>613.69000000000005</v>
+      </c>
+      <c r="G64">
+        <v>817.61500000000001</v>
+      </c>
+      <c r="H64">
+        <v>22153.074000000001</v>
+      </c>
+      <c r="I64">
+        <v>143.08199999999999</v>
+      </c>
+      <c r="J64">
+        <v>12325.859</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>875.96400000000006</v>
+      </c>
+      <c r="O64">
+        <v>15204.767</v>
+      </c>
+      <c r="P64">
+        <v>12426.204</v>
+      </c>
+      <c r="Q64">
+        <v>26.635999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>6948.3069999999998</v>
+      </c>
+      <c r="U64">
+        <v>202.33799999999999</v>
+      </c>
+      <c r="V64">
+        <v>480.52499999999998</v>
+      </c>
+      <c r="W64">
+        <v>-309.75299999999999</v>
+      </c>
+      <c r="X64">
+        <v>214.40299999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>86.058000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>98.364999999999995</v>
+      </c>
+      <c r="D65">
+        <v>992.01599999999996</v>
+      </c>
+      <c r="E65">
+        <v>276.25900000000001</v>
+      </c>
+      <c r="F65">
+        <v>626.03800000000001</v>
+      </c>
+      <c r="G65">
+        <v>839.67499999999995</v>
+      </c>
+      <c r="H65">
+        <v>22171.723000000002</v>
+      </c>
+      <c r="I65">
+        <v>148.916</v>
+      </c>
+      <c r="J65">
+        <v>12491.596</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>897.73800000000006</v>
+      </c>
+      <c r="O65">
+        <v>15418.005999999999</v>
+      </c>
+      <c r="P65">
+        <v>12592.958000000001</v>
+      </c>
+      <c r="Q65">
+        <v>-46.119</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>6753.7169999999996</v>
+      </c>
+      <c r="U65">
+        <v>156.21899999999999</v>
+      </c>
+      <c r="V65">
+        <v>386.53399999999999</v>
+      </c>
+      <c r="W65">
+        <v>-309.779</v>
+      </c>
+      <c r="X65">
+        <v>-169.363</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>98.366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>124.71</v>
+      </c>
+      <c r="D66">
+        <v>1032.4159999999999</v>
+      </c>
+      <c r="E66">
+        <v>440.73200000000003</v>
+      </c>
+      <c r="F66">
+        <v>640.18399999999997</v>
+      </c>
+      <c r="G66">
+        <v>1324.761</v>
+      </c>
+      <c r="H66">
+        <v>22675.092000000001</v>
+      </c>
+      <c r="I66">
+        <v>188.51599999999999</v>
+      </c>
+      <c r="J66">
+        <v>12069.393</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>961.35500000000002</v>
+      </c>
+      <c r="O66">
+        <v>15117.977000000001</v>
+      </c>
+      <c r="P66">
+        <v>12171.142</v>
+      </c>
+      <c r="Q66">
+        <v>411.38</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3200</v>
+      </c>
+      <c r="T66">
+        <v>7557.1149999999998</v>
+      </c>
+      <c r="U66">
+        <v>567.59900000000005</v>
+      </c>
+      <c r="V66">
+        <v>477.54899999999998</v>
+      </c>
+      <c r="W66">
+        <v>-353.52699999999999</v>
+      </c>
+      <c r="X66">
+        <v>204.26</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>124.71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>119</v>
+      </c>
+      <c r="D67">
+        <v>1016</v>
+      </c>
+      <c r="E67">
+        <v>302.697</v>
+      </c>
+      <c r="F67">
+        <v>652</v>
+      </c>
+      <c r="G67">
+        <v>916.44899999999996</v>
+      </c>
+      <c r="H67">
+        <v>23776.842000000001</v>
+      </c>
+      <c r="I67">
+        <v>154.75299999999999</v>
+      </c>
+      <c r="J67">
+        <v>13380.091</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1099</v>
+      </c>
+      <c r="N67">
+        <v>902.19500000000005</v>
+      </c>
+      <c r="O67">
+        <v>16413.362000000001</v>
+      </c>
+      <c r="P67">
+        <v>13492.973</v>
+      </c>
+      <c r="Q67">
+        <v>-372</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>7363.48</v>
+      </c>
+      <c r="U67">
+        <v>205.19200000000001</v>
+      </c>
+      <c r="V67">
+        <v>442</v>
+      </c>
+      <c r="W67">
+        <v>-348</v>
+      </c>
+      <c r="X67">
+        <v>949</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>112</v>
+      </c>
+      <c r="D68">
+        <v>1038</v>
+      </c>
+      <c r="E68">
+        <v>305.98200000000003</v>
+      </c>
+      <c r="F68">
+        <v>665</v>
+      </c>
+      <c r="G68">
+        <v>951.33500000000004</v>
+      </c>
+      <c r="H68">
+        <v>24483.624</v>
+      </c>
+      <c r="I68">
+        <v>178.92699999999999</v>
+      </c>
+      <c r="J68">
+        <v>13726.333000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>997.91200000000003</v>
+      </c>
+      <c r="O68">
+        <v>16893.314999999999</v>
+      </c>
+      <c r="P68">
+        <v>13841.264999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-2</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>7590.3090000000002</v>
+      </c>
+      <c r="U68">
+        <v>199.66300000000001</v>
+      </c>
+      <c r="V68">
+        <v>489</v>
+      </c>
+      <c r="W68">
+        <v>-348</v>
+      </c>
+      <c r="X68">
+        <v>420</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>115</v>
+      </c>
+      <c r="D69">
+        <v>1063</v>
+      </c>
+      <c r="E69">
+        <v>317.85599999999999</v>
+      </c>
+      <c r="F69">
+        <v>675</v>
+      </c>
+      <c r="G69">
+        <v>7474.5550000000003</v>
+      </c>
+      <c r="H69">
+        <v>31011.756000000001</v>
+      </c>
+      <c r="I69">
+        <v>179.33500000000001</v>
+      </c>
+      <c r="J69">
+        <v>15090.217000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1048.8710000000001</v>
+      </c>
+      <c r="O69">
+        <v>18339.423999999999</v>
+      </c>
+      <c r="P69">
+        <v>15204.415000000001</v>
+      </c>
+      <c r="Q69">
+        <v>6516</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>12672.332</v>
+      </c>
+      <c r="U69">
+        <v>6719.134</v>
+      </c>
+      <c r="V69">
+        <v>482</v>
+      </c>
+      <c r="W69">
+        <v>-386</v>
+      </c>
+      <c r="X69">
+        <v>6330</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>99</v>
+      </c>
+      <c r="D70">
+        <v>1238</v>
+      </c>
+      <c r="E70">
+        <v>484</v>
+      </c>
+      <c r="F70">
+        <v>799</v>
+      </c>
+      <c r="G70">
+        <v>1134</v>
+      </c>
+      <c r="H70">
+        <v>32229</v>
+      </c>
+      <c r="I70">
+        <v>249</v>
+      </c>
+      <c r="J70">
+        <v>15817</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1292</v>
+      </c>
+      <c r="O70">
+        <v>19890</v>
+      </c>
+      <c r="P70">
+        <v>16159</v>
+      </c>
+      <c r="Q70">
+        <v>-6399</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>4500</v>
+      </c>
+      <c r="T70">
+        <v>12339</v>
+      </c>
+      <c r="U70">
+        <v>314</v>
+      </c>
+      <c r="V70">
+        <v>630</v>
+      </c>
+      <c r="W70">
+        <v>-457</v>
+      </c>
+      <c r="X70">
+        <v>493</v>
+      </c>
+      <c r="Y70">
+        <v>227</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>114</v>
+      </c>
+      <c r="D71">
+        <v>1299</v>
+      </c>
+      <c r="E71">
+        <v>502</v>
+      </c>
+      <c r="F71">
+        <v>866</v>
+      </c>
+      <c r="G71">
+        <v>1074</v>
+      </c>
+      <c r="H71">
+        <v>32250</v>
+      </c>
+      <c r="I71">
+        <v>248</v>
+      </c>
+      <c r="J71">
+        <v>15616</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-2400</v>
+      </c>
+      <c r="N71">
+        <v>1187</v>
+      </c>
+      <c r="O71">
+        <v>19418</v>
+      </c>
+      <c r="P71">
+        <v>15746</v>
+      </c>
+      <c r="Q71">
+        <v>-95</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>12832</v>
+      </c>
+      <c r="U71">
+        <v>220</v>
+      </c>
+      <c r="V71">
+        <v>452</v>
+      </c>
+      <c r="W71">
+        <v>-471</v>
+      </c>
+      <c r="X71">
+        <v>-163</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>180</v>
+      </c>
+      <c r="D72">
+        <v>1330</v>
+      </c>
+      <c r="E72">
+        <v>576</v>
+      </c>
+      <c r="F72">
+        <v>876</v>
+      </c>
+      <c r="G72">
+        <v>1164</v>
+      </c>
+      <c r="H72">
+        <v>32374</v>
+      </c>
+      <c r="I72">
+        <v>272</v>
+      </c>
+      <c r="J72">
+        <v>15844</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1286</v>
+      </c>
+      <c r="O72">
+        <v>19808</v>
+      </c>
+      <c r="P72">
+        <v>15956</v>
+      </c>
+      <c r="Q72">
+        <v>-9</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>12566</v>
+      </c>
+      <c r="U72">
+        <v>206</v>
+      </c>
+      <c r="V72">
+        <v>659</v>
+      </c>
+      <c r="W72">
+        <v>-465</v>
+      </c>
+      <c r="X72">
+        <v>-273</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>164</v>
+      </c>
+      <c r="D73">
+        <v>1375</v>
+      </c>
+      <c r="E73">
+        <v>557</v>
+      </c>
+      <c r="F73">
+        <v>901</v>
+      </c>
+      <c r="G73">
+        <v>1249</v>
+      </c>
+      <c r="H73">
+        <v>32644</v>
+      </c>
+      <c r="I73">
+        <v>302</v>
+      </c>
+      <c r="J73">
+        <v>16313</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1304</v>
+      </c>
+      <c r="O73">
+        <v>20349</v>
+      </c>
+      <c r="P73">
+        <v>16424</v>
+      </c>
+      <c r="Q73">
+        <v>117</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>12295</v>
+      </c>
+      <c r="U73">
+        <v>323</v>
+      </c>
+      <c r="V73">
+        <v>664</v>
+      </c>
+      <c r="W73">
+        <v>-464</v>
+      </c>
+      <c r="X73">
+        <v>-44</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>164</v>
+      </c>
+      <c r="D74">
+        <v>1366</v>
+      </c>
+      <c r="E74">
+        <v>593</v>
+      </c>
+      <c r="F74">
+        <v>883</v>
+      </c>
+      <c r="G74">
+        <v>1229</v>
+      </c>
+      <c r="H74">
+        <v>32762</v>
+      </c>
+      <c r="I74">
+        <v>313</v>
+      </c>
+      <c r="J74">
+        <v>16348</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1506</v>
+      </c>
+      <c r="O74">
+        <v>21191</v>
+      </c>
+      <c r="P74">
+        <v>16682</v>
+      </c>
+      <c r="Q74">
+        <v>-40</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>5000</v>
+      </c>
+      <c r="T74">
+        <v>11571</v>
+      </c>
+      <c r="U74">
+        <v>277</v>
+      </c>
+      <c r="V74">
+        <v>725</v>
+      </c>
+      <c r="W74">
+        <v>-495</v>
+      </c>
+      <c r="X74">
+        <v>-253</v>
+      </c>
+      <c r="Y74">
+        <v>227</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>193</v>
+      </c>
+      <c r="D75">
+        <v>1408</v>
+      </c>
+      <c r="E75">
+        <v>646</v>
+      </c>
+      <c r="F75">
+        <v>923</v>
+      </c>
+      <c r="G75">
+        <v>1193</v>
+      </c>
+      <c r="H75">
+        <v>37778</v>
+      </c>
+      <c r="I75">
+        <v>311</v>
+      </c>
+      <c r="J75">
+        <v>16893</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1177</v>
+      </c>
+      <c r="N75">
+        <v>1565</v>
+      </c>
+      <c r="O75">
+        <v>26032</v>
+      </c>
+      <c r="P75">
+        <v>22841</v>
+      </c>
+      <c r="Q75">
+        <v>-5</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>11746</v>
+      </c>
+      <c r="U75">
+        <v>245</v>
+      </c>
+      <c r="V75">
+        <v>512</v>
+      </c>
+      <c r="W75">
+        <v>-505</v>
+      </c>
+      <c r="X75">
+        <v>-28</v>
+      </c>
+      <c r="Y75">
+        <v>5565</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>216</v>
+      </c>
+      <c r="D76">
+        <v>1447</v>
+      </c>
+      <c r="E76">
+        <v>698</v>
+      </c>
+      <c r="F76">
+        <v>945</v>
+      </c>
+      <c r="G76">
+        <v>1294</v>
+      </c>
+      <c r="H76">
+        <v>38147</v>
+      </c>
+      <c r="I76">
+        <v>337</v>
+      </c>
+      <c r="J76">
+        <v>17236</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1698</v>
+      </c>
+      <c r="O76">
+        <v>26624</v>
+      </c>
+      <c r="P76">
+        <v>23285</v>
+      </c>
+      <c r="Q76">
+        <v>21</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>11523</v>
+      </c>
+      <c r="U76">
+        <v>288</v>
+      </c>
+      <c r="V76">
+        <v>715</v>
+      </c>
+      <c r="W76">
+        <v>-496</v>
+      </c>
+      <c r="X76">
+        <v>-173</v>
+      </c>
+      <c r="Y76">
+        <v>5662</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>243</v>
+      </c>
+      <c r="D77">
+        <v>1482</v>
+      </c>
+      <c r="E77">
+        <v>774</v>
+      </c>
+      <c r="F77">
+        <v>967</v>
+      </c>
+      <c r="G77">
+        <v>1253</v>
+      </c>
+      <c r="H77">
+        <v>38344</v>
+      </c>
+      <c r="I77">
+        <v>368</v>
+      </c>
+      <c r="J77">
+        <v>17517</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1734</v>
+      </c>
+      <c r="O77">
+        <v>27019</v>
+      </c>
+      <c r="P77">
+        <v>23626</v>
+      </c>
+      <c r="Q77">
+        <v>-104</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>11325</v>
+      </c>
+      <c r="U77">
+        <v>182</v>
+      </c>
+      <c r="V77">
+        <v>663</v>
+      </c>
+      <c r="W77">
+        <v>-499</v>
+      </c>
+      <c r="X77">
+        <v>-228</v>
+      </c>
+      <c r="Y77">
+        <v>5713</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>208</v>
+      </c>
+      <c r="D78">
+        <v>1426</v>
+      </c>
+      <c r="E78">
+        <v>710</v>
+      </c>
+      <c r="F78">
+        <v>942</v>
+      </c>
+      <c r="G78">
+        <v>1204</v>
+      </c>
+      <c r="H78">
+        <v>38457</v>
+      </c>
+      <c r="I78">
+        <v>334</v>
+      </c>
+      <c r="J78">
+        <v>17794</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1920</v>
+      </c>
+      <c r="O78">
+        <v>27968</v>
+      </c>
+      <c r="P78">
+        <v>23931</v>
+      </c>
+      <c r="Q78">
+        <v>13</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>5100</v>
+      </c>
+      <c r="T78">
+        <v>10489</v>
+      </c>
+      <c r="U78">
+        <v>196</v>
+      </c>
+      <c r="V78">
+        <v>808</v>
+      </c>
+      <c r="W78">
+        <v>-525</v>
+      </c>
+      <c r="X78">
+        <v>-263</v>
+      </c>
+      <c r="Y78">
+        <v>5738</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>185</v>
+      </c>
+      <c r="D79">
+        <v>1421</v>
+      </c>
+      <c r="E79">
+        <v>618</v>
+      </c>
+      <c r="F79">
+        <v>947</v>
+      </c>
+      <c r="G79">
+        <v>1247</v>
+      </c>
+      <c r="H79">
+        <v>38616</v>
+      </c>
+      <c r="I79">
+        <v>296</v>
+      </c>
+      <c r="J79">
+        <v>17525</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-155</v>
+      </c>
+      <c r="M79">
+        <v>-621</v>
+      </c>
+      <c r="N79">
+        <v>2669</v>
+      </c>
+      <c r="O79">
+        <v>28495</v>
+      </c>
+      <c r="P79">
+        <v>24562</v>
+      </c>
+      <c r="Q79">
+        <v>134</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>10121</v>
+      </c>
+      <c r="U79">
+        <v>310</v>
+      </c>
+      <c r="V79">
+        <v>653</v>
+      </c>
+      <c r="W79">
+        <v>-541</v>
+      </c>
+      <c r="X79">
+        <v>-50</v>
+      </c>
+      <c r="Y79">
+        <v>5788</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>201</v>
+      </c>
+      <c r="D80">
+        <v>1440</v>
+      </c>
+      <c r="E80">
+        <v>573</v>
+      </c>
+      <c r="F80">
+        <v>954</v>
+      </c>
+      <c r="G80">
+        <v>3436</v>
+      </c>
+      <c r="H80">
+        <v>40901</v>
+      </c>
+      <c r="I80">
+        <v>280</v>
+      </c>
+      <c r="J80">
+        <v>20789</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1964</v>
+      </c>
+      <c r="O80">
+        <v>31075</v>
+      </c>
+      <c r="P80">
+        <v>27035</v>
+      </c>
+      <c r="Q80">
+        <v>2201</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>9826</v>
+      </c>
+      <c r="U80">
+        <v>2514</v>
+      </c>
+      <c r="V80">
+        <v>756</v>
+      </c>
+      <c r="W80">
+        <v>-530</v>
+      </c>
+      <c r="X80">
+        <v>1867</v>
+      </c>
+      <c r="Y80">
+        <v>5840</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>162</v>
+      </c>
+      <c r="D81">
+        <v>1486</v>
+      </c>
+      <c r="E81">
+        <v>600</v>
+      </c>
+      <c r="F81">
+        <v>999</v>
+      </c>
+      <c r="G81">
+        <v>1184</v>
+      </c>
+      <c r="H81">
+        <v>38786</v>
+      </c>
+      <c r="I81">
+        <v>264</v>
+      </c>
+      <c r="J81">
+        <v>18961</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1925</v>
+      </c>
+      <c r="O81">
+        <v>29284</v>
+      </c>
+      <c r="P81">
+        <v>25333</v>
+      </c>
+      <c r="Q81">
+        <v>-2252</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>9502</v>
+      </c>
+      <c r="U81">
+        <v>242</v>
+      </c>
+      <c r="V81">
+        <v>661</v>
+      </c>
+      <c r="W81">
+        <v>-545</v>
+      </c>
+      <c r="X81">
+        <v>-2468</v>
+      </c>
+      <c r="Y81">
+        <v>5942</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>508</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1493</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>583</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>991</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1104</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>38768</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>230</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>18915</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1969</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>29307</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>25417</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-40</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>4900</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>9461</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>232</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>985</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-574</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-620</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>6044</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>508</v>
       </c>
     </row>
